--- a/16OCT18 Modelos.xlsx
+++ b/16OCT18 Modelos.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Tabla 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Variables_sa" sheetId="4" r:id="rId4"/>
+    <sheet name="TCR-Equilibrio" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="284">
   <si>
     <t>LTCR_SA(-1)</t>
   </si>
@@ -202,13 +205,691 @@
   </si>
   <si>
     <t>Parámetros de ajuste</t>
+  </si>
+  <si>
+    <t>\hline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\hline                                                                                                  </t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\multicolumn{5}{c}{Velocidad de ajuste de cada variable}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\multicolumn{5}{c}{Regresión de largo plazo}                                                   </t>
+  </si>
+  <si>
+    <t>$\Delta\(\tilde{AEN}/Y))$</t>
+  </si>
+  <si>
+    <t>(-0,11825)</t>
+  </si>
+  <si>
+    <t>(-0,132)</t>
+  </si>
+  <si>
+    <t>(-0,099)</t>
+  </si>
+  <si>
+    <t>(-0,118)</t>
+  </si>
+  <si>
+    <t>(-0,128)</t>
+  </si>
+  <si>
+    <t>(-0,061)</t>
+  </si>
+  <si>
+    <t>(-0,053)</t>
+  </si>
+  <si>
+    <t>(-0,066)</t>
+  </si>
+  <si>
+    <t>(-0,277)</t>
+  </si>
+  <si>
+    <t>(-0,233)</t>
+  </si>
+  <si>
+    <t>(-0,331)</t>
+  </si>
+  <si>
+    <t>(-0,260)</t>
+  </si>
+  <si>
+    <t>(-0,792)</t>
+  </si>
+  <si>
+    <t>(-0,796)</t>
+  </si>
+  <si>
+    <t>(-0,736)</t>
+  </si>
+  <si>
+    <t>(-0,080)</t>
+  </si>
+  <si>
+    <t>-0,450***</t>
+  </si>
+  <si>
+    <t>-0,022</t>
+  </si>
+  <si>
+    <t>-0,456***</t>
+  </si>
+  <si>
+    <t>-0,300**</t>
+  </si>
+  <si>
+    <t>-0,433***</t>
+  </si>
+  <si>
+    <t>-0,512***</t>
+  </si>
+  <si>
+    <t>-0,591***</t>
+  </si>
+  <si>
+    <t>-0,930***</t>
+  </si>
+  <si>
+    <t>0,497**</t>
+  </si>
+  <si>
+    <t>0,746**</t>
+  </si>
+  <si>
+    <t>-0,495*</t>
+  </si>
+  <si>
+    <t>-0,127</t>
+  </si>
+  <si>
+    <t>6,483***</t>
+  </si>
+  <si>
+    <t>5,611***</t>
+  </si>
+  <si>
+    <t>5,759***</t>
+  </si>
+  <si>
+    <t>0,710***</t>
+  </si>
+  <si>
+    <t>-0,034</t>
+  </si>
+  <si>
+    <t>-0,040</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>-0,052*</t>
+  </si>
+  <si>
+    <t>-0,035</t>
+  </si>
+  <si>
+    <t>-0,116**</t>
+  </si>
+  <si>
+    <t>-0,080*</t>
+  </si>
+  <si>
+    <t>-0,569***</t>
+  </si>
+  <si>
+    <t>-0,779***</t>
+  </si>
+  <si>
+    <t>-0,603***</t>
+  </si>
+  <si>
+    <t>-0,274***</t>
+  </si>
+  <si>
+    <t>-0,010</t>
+  </si>
+  <si>
+    <t>0,010</t>
+  </si>
+  <si>
+    <t>-0,064</t>
+  </si>
+  <si>
+    <t>0,061***</t>
+  </si>
+  <si>
+    <t>0,020</t>
+  </si>
+  <si>
+    <t>0,067***</t>
+  </si>
+  <si>
+    <t>0,033*</t>
+  </si>
+  <si>
+    <t>0,689***</t>
+  </si>
+  <si>
+    <t>(-0,032)</t>
+  </si>
+  <si>
+    <t>(-0,031)</t>
+  </si>
+  <si>
+    <t>(-0,028)</t>
+  </si>
+  <si>
+    <t>(-0,030)</t>
+  </si>
+  <si>
+    <t>$\ln (TCR)$</t>
+  </si>
+  <si>
+    <t>$\ln (P_X/P_M)$</t>
+  </si>
+  <si>
+    <t>$\ln (G_{K}/Y)$</t>
+  </si>
+  <si>
+    <t>$\ln (G_{NT}/Y)$</t>
+  </si>
+  <si>
+    <t>$\ln (P_{NT}/P_T)$</t>
+  </si>
+  <si>
+    <t>$\ln (PIBpc/PIBpc*)$</t>
+  </si>
+  <si>
+    <t>$\(\tilde{CC}/Y)$</t>
+  </si>
+  <si>
+    <t>$\(\tilde{AEN}/Y))$</t>
+  </si>
+  <si>
+    <t>$\Delta \ln (TCR)$</t>
+  </si>
+  <si>
+    <t>$\Delta\ln(P_X/P_M)$</t>
+  </si>
+  <si>
+    <t>$\Delta\ln(G_{K}/Y)$</t>
+  </si>
+  <si>
+    <t>$\Delta\ln(G_{NT}/Y)$</t>
+  </si>
+  <si>
+    <t>$\Delta\ln(P_{NT}/P_T)$</t>
+  </si>
+  <si>
+    <t>$\Delta\ln(PIBpc/PIBpc*)$</t>
+  </si>
+  <si>
+    <t>$\Delta\(\tilde{CC}/Y)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla: Modelos de cointegración </t>
+  </si>
+  <si>
+    <t>PNTYT_SA</t>
+  </si>
+  <si>
+    <t>PRODUCTIVIDAD_PC_SA</t>
+  </si>
+  <si>
+    <t>1990Q1</t>
+  </si>
+  <si>
+    <t>1990Q2</t>
+  </si>
+  <si>
+    <t>1990Q3</t>
+  </si>
+  <si>
+    <t>1990Q4</t>
+  </si>
+  <si>
+    <t>1991Q1</t>
+  </si>
+  <si>
+    <t>1991Q2</t>
+  </si>
+  <si>
+    <t>1991Q3</t>
+  </si>
+  <si>
+    <t>1991Q4</t>
+  </si>
+  <si>
+    <t>1992Q1</t>
+  </si>
+  <si>
+    <t>1992Q2</t>
+  </si>
+  <si>
+    <t>1992Q3</t>
+  </si>
+  <si>
+    <t>1992Q4</t>
+  </si>
+  <si>
+    <t>1993Q1</t>
+  </si>
+  <si>
+    <t>1993Q2</t>
+  </si>
+  <si>
+    <t>1993Q3</t>
+  </si>
+  <si>
+    <t>1993Q4</t>
+  </si>
+  <si>
+    <t>1994Q1</t>
+  </si>
+  <si>
+    <t>1994Q2</t>
+  </si>
+  <si>
+    <t>1994Q3</t>
+  </si>
+  <si>
+    <t>1994Q4</t>
+  </si>
+  <si>
+    <t>1995Q1</t>
+  </si>
+  <si>
+    <t>1995Q2</t>
+  </si>
+  <si>
+    <t>1995Q3</t>
+  </si>
+  <si>
+    <t>1995Q4</t>
+  </si>
+  <si>
+    <t>1996Q1</t>
+  </si>
+  <si>
+    <t>1996Q2</t>
+  </si>
+  <si>
+    <t>1996Q3</t>
+  </si>
+  <si>
+    <t>1996Q4</t>
+  </si>
+  <si>
+    <t>1997Q1</t>
+  </si>
+  <si>
+    <t>1997Q2</t>
+  </si>
+  <si>
+    <t>1997Q3</t>
+  </si>
+  <si>
+    <t>1997Q4</t>
+  </si>
+  <si>
+    <t>1998Q1</t>
+  </si>
+  <si>
+    <t>1998Q2</t>
+  </si>
+  <si>
+    <t>1998Q3</t>
+  </si>
+  <si>
+    <t>1998Q4</t>
+  </si>
+  <si>
+    <t>1999Q1</t>
+  </si>
+  <si>
+    <t>1999Q2</t>
+  </si>
+  <si>
+    <t>1999Q3</t>
+  </si>
+  <si>
+    <t>1999Q4</t>
+  </si>
+  <si>
+    <t>2000Q1</t>
+  </si>
+  <si>
+    <t>2000Q2</t>
+  </si>
+  <si>
+    <t>2000Q3</t>
+  </si>
+  <si>
+    <t>2000Q4</t>
+  </si>
+  <si>
+    <t>2001Q1</t>
+  </si>
+  <si>
+    <t>2001Q2</t>
+  </si>
+  <si>
+    <t>2001Q3</t>
+  </si>
+  <si>
+    <t>2001Q4</t>
+  </si>
+  <si>
+    <t>2002Q1</t>
+  </si>
+  <si>
+    <t>2002Q2</t>
+  </si>
+  <si>
+    <t>2002Q3</t>
+  </si>
+  <si>
+    <t>2002Q4</t>
+  </si>
+  <si>
+    <t>2003Q1</t>
+  </si>
+  <si>
+    <t>2003Q2</t>
+  </si>
+  <si>
+    <t>2003Q3</t>
+  </si>
+  <si>
+    <t>2003Q4</t>
+  </si>
+  <si>
+    <t>2004Q1</t>
+  </si>
+  <si>
+    <t>2004Q2</t>
+  </si>
+  <si>
+    <t>2004Q3</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q1</t>
+  </si>
+  <si>
+    <t>2005Q2</t>
+  </si>
+  <si>
+    <t>2005Q3</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q1</t>
+  </si>
+  <si>
+    <t>2006Q2</t>
+  </si>
+  <si>
+    <t>2006Q3</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q1</t>
+  </si>
+  <si>
+    <t>2007Q2</t>
+  </si>
+  <si>
+    <t>2007Q3</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q1</t>
+  </si>
+  <si>
+    <t>2008Q2</t>
+  </si>
+  <si>
+    <t>2008Q3</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q1</t>
+  </si>
+  <si>
+    <t>2009Q2</t>
+  </si>
+  <si>
+    <t>2009Q3</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q1</t>
+  </si>
+  <si>
+    <t>2010Q2</t>
+  </si>
+  <si>
+    <t>2010Q3</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q1</t>
+  </si>
+  <si>
+    <t>2011Q2</t>
+  </si>
+  <si>
+    <t>2011Q3</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>CC_Y</t>
+  </si>
+  <si>
+    <t>1990-2017</t>
+  </si>
+  <si>
+    <t>1990-2003</t>
+  </si>
+  <si>
+    <t>2004-2017</t>
+  </si>
+  <si>
+    <t>1991-2017</t>
+  </si>
+  <si>
+    <t>1991-2003</t>
+  </si>
+  <si>
+    <t>\multicolumn{3}{c}{$TCR$}\\</t>
+  </si>
+  <si>
+    <t>$PIBpc/PIBpc*$</t>
+  </si>
+  <si>
+    <t>$P_{NT}/P_T$</t>
+  </si>
+  <si>
+    <t>$G_{NT}/Y$</t>
+  </si>
+  <si>
+    <t>$G/Y$</t>
+  </si>
+  <si>
+    <t>$P_X/P_M$</t>
+  </si>
+  <si>
+    <t>$CC/Y$</t>
+  </si>
+  <si>
+    <t>$AEN/Y$</t>
+  </si>
+  <si>
+    <t>G_Y_CN_SA</t>
+  </si>
+  <si>
+    <t>GK_Y_SA</t>
+  </si>
+  <si>
+    <t>GNT_Y_SA</t>
+  </si>
+  <si>
+    <t>GT_Y_SA</t>
+  </si>
+  <si>
+    <t>TCR_SA</t>
+  </si>
+  <si>
+    <t>TI_SA</t>
+  </si>
+  <si>
+    <t>NFA_Y</t>
+  </si>
+  <si>
+    <t>$G_{K}/Y$</t>
+  </si>
+  <si>
+    <t>$G_{T}/Y$</t>
+  </si>
+  <si>
+    <t>EQ_TCR_C</t>
+  </si>
+  <si>
+    <t>EQ_TCR_D</t>
+  </si>
+  <si>
+    <t>EQ_TCR_E</t>
+  </si>
+  <si>
+    <t>EQ_TCR_G</t>
+  </si>
+  <si>
+    <t>TCR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +905,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000CC"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,7 +946,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,11 +954,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -273,6 +1006,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,13 +1836,13 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -1388,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,13 +2480,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2016,4 +2795,8696 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L3" s="4"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L4" s="4"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="4"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="19">
+        <v>5.3606999999999996</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="19">
+        <v>3.489681</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2.6771569999999998</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="19">
+        <v>4.7099460000000004</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="5"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="5"/>
+      <c r="L27" s="4"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="12"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="16">
+        <v>-5.2220000000000003E-2</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="16">
+        <v>-5.0880000000000002E-2</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="16">
+        <v>-4.4429999999999997E-2</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="16">
+        <v>-4.8489999999999998E-2</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="16">
+        <v>-0.16711999999999999</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="16">
+        <v>-0.15644</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="16">
+        <v>-0.14887</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="16">
+        <v>-9.9599999999999994E-2</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="16">
+        <v>-1.891E-2</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="16">
+        <v>-1.8530000000000001E-2</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="16">
+        <v>-1.7080000000000001E-2</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="16">
+        <v>-4.2130000000000001E-2</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="16">
+        <v>-2.2259999999999999E-2</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="16">
+        <v>-1.9369999999999998E-2</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="16">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="16">
+        <v>-0.21976000000000001</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="22"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L30:P30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="11.42578125" style="24"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.114614249439452</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.3412091418557203E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.156663700205627</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.20945943277350801</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.7361854341444709E-3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>88.525046682336296</v>
+      </c>
+      <c r="I2" s="1">
+        <v>95.318923826751103</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1.44943896956038E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-6.4536927872979502E-2</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.113769543776069</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.1416462694949002E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.159376742256712</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.214016390073203</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8.65719337435507E-3</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>92.305786300043394</v>
+      </c>
+      <c r="I3" s="1">
+        <v>94.783708296884697</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-1.53334073683899E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-0.14443057678419</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="25">
+        <v>1</v>
+      </c>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.112340206907803</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.4564274958314297E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.17233241608484401</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.225058787513293</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.7280984049745106E-3</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>93.727269357523994</v>
+      </c>
+      <c r="I4" s="1">
+        <v>92.686158747281198</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-6.5325702003465498E-3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.3371733908301801E-2</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0.43038336434228897</v>
+      </c>
+      <c r="P4" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.125273527146919</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.4334817648527799E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.183125087738643</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.23781961211420799</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.20531177154127E-3</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>95.558263226586305</v>
+      </c>
+      <c r="I5" s="1">
+        <v>88.906278578125594</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1.52677869718221E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-0.143514841730184</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0.61349150332978808</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0.86230220058957019</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>1</v>
+      </c>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.106608533806808</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.6576470421486802E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.17003047369686999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.234492986902087</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.8692932388644095E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.75902442232765599</v>
+      </c>
+      <c r="H6" s="1">
+        <v>92.317312720277201</v>
+      </c>
+      <c r="I6" s="1">
+        <v>85.762182910872596</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-3.9153778094874999E-3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-1.02678207176007E-2</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0.64538495955410979</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0.84161923526026194</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0.9881561131485801</v>
+      </c>
+      <c r="R6" s="25">
+        <v>1</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.12425969958453301</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.5123926184831201E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.17772853827606</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.240465646460963</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.0380077819675903E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.76037889742741505</v>
+      </c>
+      <c r="H7" s="1">
+        <v>89.681097263863904</v>
+      </c>
+      <c r="I7" s="1">
+        <v>82.095927345525894</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1.80655023821806E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-6.5975389647486504E-2</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="25">
+        <v>-0.12148111443924667</v>
+      </c>
+      <c r="P7" s="25">
+        <v>-0.49181121568904573</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>-0.35625207126776803</v>
+      </c>
+      <c r="R7" s="25">
+        <v>-0.31212756049930729</v>
+      </c>
+      <c r="S7" s="25">
+        <v>1</v>
+      </c>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.12642265545835599</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.7898411575982201E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.18614140711219301</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.235200432221114</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.9610690739316008E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.74902506014380299</v>
+      </c>
+      <c r="H8" s="1">
+        <v>90.427231831680999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>79.2769456562133</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-1.03143092967352E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-4.56245373278929E-2</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0.66427914210592343</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0.20821300309887195</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0.43440480976313611</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0.42006128877088456</v>
+      </c>
+      <c r="S8" s="25">
+        <v>-2.5814410929257896E-2</v>
+      </c>
+      <c r="T8" s="25">
+        <v>1</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.120423793363234</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.3951501216715698E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.19273123272715501</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.247293380847974</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.87415875849892E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.74607482644423295</v>
+      </c>
+      <c r="H9" s="1">
+        <v>92.239108446202906</v>
+      </c>
+      <c r="I9" s="1">
+        <v>76.810261927624296</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-3.0680907166983899E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-0.235098479287739</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O9" s="25">
+        <v>-0.34170227883128218</v>
+      </c>
+      <c r="P9" s="25">
+        <v>-0.47208109632139994</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>-0.45788488385093451</v>
+      </c>
+      <c r="R9" s="25">
+        <v>-0.52863957346744184</v>
+      </c>
+      <c r="S9" s="25">
+        <v>-3.4447729562080039E-2</v>
+      </c>
+      <c r="T9" s="25">
+        <v>4.1995500616000707E-2</v>
+      </c>
+      <c r="U9" s="25">
+        <v>1</v>
+      </c>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.120394927745301</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.0888968301227203E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.213190117311366</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.251784758100771</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8.9871288220676696E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.73386599387970197</v>
+      </c>
+      <c r="H10" s="1">
+        <v>92.442215144171499</v>
+      </c>
+      <c r="I10" s="1">
+        <v>74.936251346452195</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-2.87953177179987E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-0.12913744930576601</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="O10" s="25">
+        <v>-0.52002904517940762</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0.30710558808775051</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0.13077495822665269</v>
+      </c>
+      <c r="R10" s="25">
+        <v>7.4693055744403491E-2</v>
+      </c>
+      <c r="S10" s="25">
+        <v>-0.48422358872474652</v>
+      </c>
+      <c r="T10" s="25">
+        <v>-0.27663266373993978</v>
+      </c>
+      <c r="U10" s="25">
+        <v>7.7135354072190897E-3</v>
+      </c>
+      <c r="V10" s="25">
+        <v>1</v>
+      </c>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.123895095669512</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.8796322340049607E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.216720669106549</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.26596679788774602</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.2599158969573804E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.73135454941787703</v>
+      </c>
+      <c r="H11" s="1">
+        <v>92.644884309122105</v>
+      </c>
+      <c r="I11" s="1">
+        <v>72.058348312276294</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-3.6188546046087303E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-0.19159471197925901</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="O11" s="25">
+        <v>-0.22437380630199563</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0.31996781926237816</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0.24438777712625967</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0.1428901090409595</v>
+      </c>
+      <c r="S11" s="25">
+        <v>-0.52307630185187748</v>
+      </c>
+      <c r="T11" s="25">
+        <v>8.4502222576020192E-2</v>
+      </c>
+      <c r="U11" s="25">
+        <v>0.39835368089935513</v>
+      </c>
+      <c r="V11" s="25">
+        <v>0.63052732273198742</v>
+      </c>
+      <c r="W11" s="25">
+        <v>1</v>
+      </c>
+      <c r="X11" s="25"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.13299586471653299</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.7568987350583601E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.209321846115153</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.257708133304137</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9.0821891520026701E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.74914089984499899</v>
+      </c>
+      <c r="H12" s="1">
+        <v>95.746631256300503</v>
+      </c>
+      <c r="I12" s="1">
+        <v>69.540557645837197</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-3.16274673386963E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-0.18552025345662099</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="O12" s="26">
+        <v>-0.23158820766612406</v>
+      </c>
+      <c r="P12" s="26">
+        <v>0.23849388438394808</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>0.11516516285307886</v>
+      </c>
+      <c r="R12" s="26">
+        <v>2.7706060769841282E-2</v>
+      </c>
+      <c r="S12" s="26">
+        <v>-0.48398508076467323</v>
+      </c>
+      <c r="T12" s="26">
+        <v>7.0722493181111762E-2</v>
+      </c>
+      <c r="U12" s="26">
+        <v>0.44578125392018297</v>
+      </c>
+      <c r="V12" s="26">
+        <v>0.5346676505246184</v>
+      </c>
+      <c r="W12" s="26">
+        <v>0.87771071052385308</v>
+      </c>
+      <c r="X12" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.13254795427962199</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.2300996327278997E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.20792957825146599</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.25055455392039699</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9.4285184455324706E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.74954025613855801</v>
+      </c>
+      <c r="H13" s="1">
+        <v>94.277348021572394</v>
+      </c>
+      <c r="I13" s="1">
+        <v>67.177650678644099</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-3.2195629367103802E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-0.28973922802304403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.13608043623994601</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.6081294438348407E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.223527565319523</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.27032852025485998</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.1039130698123607E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.76113853320636404</v>
+      </c>
+      <c r="H14" s="1">
+        <v>94.838161095821803</v>
+      </c>
+      <c r="I14" s="1">
+        <v>63.986564308477902</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-3.2626931165021897E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-0.222366855914581</v>
+      </c>
+      <c r="N14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.13889427476890001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.1594101418950506E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.22523848808519001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.26705470915277701</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.2558038121559605E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.76336718590461194</v>
+      </c>
+      <c r="H15" s="1">
+        <v>96.327280386620203</v>
+      </c>
+      <c r="I15" s="1">
+        <v>62.450823251480102</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-3.1359631063163897E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-0.19469915071784699</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X15" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.124463541931322</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.98897029037473E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.21991433797123</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.26289051976903099</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.0469147696664205E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.75894264133297096</v>
+      </c>
+      <c r="H16" s="1">
+        <v>94.482073333185099</v>
+      </c>
+      <c r="I16" s="1">
+        <v>61.569577248179002</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-2.12016845110303E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-0.13444042327870401</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="O16" s="25">
+        <v>1</v>
+      </c>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.13366062648778401</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.8405043134687903E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.20817762609055099</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.24993877529201899</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.9999118275675503E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.76199648762437699</v>
+      </c>
+      <c r="H17" s="1">
+        <v>96.031400861753497</v>
+      </c>
+      <c r="I17" s="1">
+        <v>61.934119485955001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-3.2235575597171898E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-0.117176609972425</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0.75071626648944301</v>
+      </c>
+      <c r="P17" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.14061369152272499</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.6352173704215601E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.22363383875666701</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.26326824351723499</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8.7386251239070407E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.75643807575948196</v>
+      </c>
+      <c r="H18" s="1">
+        <v>99.361741450802398</v>
+      </c>
+      <c r="I18" s="1">
+        <v>62.821867548122199</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-2.1042447638379802E-3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-0.11639677864469999</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0.90521202732494976</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0.79133133592248239</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>1</v>
+      </c>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.12801611206232499</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.8636064855017898E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.21389800592604999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.25005019422333102</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8.4056417196026797E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.75979808700046603</v>
+      </c>
+      <c r="H19" s="1">
+        <v>101.95352422176801</v>
+      </c>
+      <c r="I19" s="1">
+        <v>64.022521602169206</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-7.7309040730851103E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-0.168198614149068</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0.89832260544608655</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0.78455737914997392</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>0.98643988276774386</v>
+      </c>
+      <c r="R19" s="25">
+        <v>1</v>
+      </c>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.15130067578075301</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.23689711374019E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.23556933182074499</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.27881034947240801</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9.0480495984548506E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.75535319682589497</v>
+      </c>
+      <c r="H20" s="1">
+        <v>103.56922994348901</v>
+      </c>
+      <c r="I20" s="1">
+        <v>64.456177110449801</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.3877900035494102E-3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5.4099105102462597E-3</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0.24891406480212755</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0.26833721709767555</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0.33132386217860149</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0.30922990122332933</v>
+      </c>
+      <c r="S20" s="25">
+        <v>1</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.123514790074342</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.31372366956931E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.21170707231607599</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.24962033341395301</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.9245828890036696E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.74883640700792997</v>
+      </c>
+      <c r="H21" s="1">
+        <v>105.073854659378</v>
+      </c>
+      <c r="I21" s="1">
+        <v>64.554676214576105</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1.24007855143078E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-7.8819887284811402E-2</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" s="25">
+        <v>0.81915229206526574</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0.64598690897876487</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0.88446718810415625</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0.89381644665601301</v>
+      </c>
+      <c r="S21" s="25">
+        <v>0.30970974209002655</v>
+      </c>
+      <c r="T21" s="25">
+        <v>1</v>
+      </c>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.13299058947210601</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.3607646507320403E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.19077816309544801</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.22904830091585901</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8.8739147535904801E-3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.74936808253204201</v>
+      </c>
+      <c r="H22" s="1">
+        <v>106.86104137630601</v>
+      </c>
+      <c r="I22" s="1">
+        <v>64.620750786060995</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-2.5852419938712901E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-0.143948655411163</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0.10098533303828471</v>
+      </c>
+      <c r="P22" s="25">
+        <v>0.11337258940372504</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>-2.5972737342703986E-2</v>
+      </c>
+      <c r="R22" s="25">
+        <v>-0.10215668822589499</v>
+      </c>
+      <c r="S22" s="25">
+        <v>-0.26102451516728875</v>
+      </c>
+      <c r="T22" s="25">
+        <v>-0.27551660191880112</v>
+      </c>
+      <c r="U22" s="25">
+        <v>1</v>
+      </c>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.12553501028189501</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.82815786898227E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.20516604317954701</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.25017590234083198</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.6557976195534795E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.74774374778671304</v>
+      </c>
+      <c r="H23" s="1">
+        <v>106.904564453199</v>
+      </c>
+      <c r="I23" s="1">
+        <v>64.3646944196867</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-2.01765510104676E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-0.14531558135933501</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="O23" s="25">
+        <v>-0.76696639174093906</v>
+      </c>
+      <c r="P23" s="25">
+        <v>-0.72534746249963489</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>-0.828357197973973</v>
+      </c>
+      <c r="R23" s="25">
+        <v>-0.7709095843014131</v>
+      </c>
+      <c r="S23" s="25">
+        <v>-0.49062463785921839</v>
+      </c>
+      <c r="T23" s="25">
+        <v>-0.71540203188882512</v>
+      </c>
+      <c r="U23" s="25">
+        <v>-0.25936352278344754</v>
+      </c>
+      <c r="V23" s="25">
+        <v>1</v>
+      </c>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.135511191652126</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.6263979857453401E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.18670762790713599</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.23385590938015</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9.1819534057400905E-3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.76428198338972198</v>
+      </c>
+      <c r="H24" s="1">
+        <v>105.79291431899701</v>
+      </c>
+      <c r="I24" s="1">
+        <v>63.840150815390103</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-8.7503223940380796E-3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-9.0277416599169005E-2</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="O24" s="25">
+        <v>0.30350405830106369</v>
+      </c>
+      <c r="P24" s="25">
+        <v>0.12856781670043058</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>0.1634596307249303</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0.18540041612892669</v>
+      </c>
+      <c r="S24" s="25">
+        <v>-0.5051165853231937</v>
+      </c>
+      <c r="T24" s="25">
+        <v>0.2688040073399055</v>
+      </c>
+      <c r="U24" s="25">
+        <v>0.29788423384489948</v>
+      </c>
+      <c r="V24" s="25">
+        <v>4.9161509090905109E-2</v>
+      </c>
+      <c r="W24" s="25">
+        <v>1</v>
+      </c>
+      <c r="X24" s="25"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.14401265000622701</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.9921938562496301E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.232383629729467</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.27495872008557598</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9.2243251700040007E-3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.73422749736779902</v>
+      </c>
+      <c r="H25" s="1">
+        <v>102.724748124763</v>
+      </c>
+      <c r="I25" s="1">
+        <v>63.588278790976403</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1.0124215863985001E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-0.113763195035626</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="O25" s="26">
+        <v>4.0157414368833487E-2</v>
+      </c>
+      <c r="P25" s="26">
+        <v>-0.10667525766114784</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>-8.1252808876493401E-2</v>
+      </c>
+      <c r="R25" s="26">
+        <v>-5.20986169390538E-2</v>
+      </c>
+      <c r="S25" s="26">
+        <v>-0.51517379253454032</v>
+      </c>
+      <c r="T25" s="26">
+        <v>5.0827676334509478E-2</v>
+      </c>
+      <c r="U25" s="26">
+        <v>0.20566508440393758</v>
+      </c>
+      <c r="V25" s="26">
+        <v>0.2232460769233956</v>
+      </c>
+      <c r="W25" s="26">
+        <v>0.78758518028136237</v>
+      </c>
+      <c r="X25" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.126413009521116</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6.4078150640344694E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.218841887538513</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.25488121130970398</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9.2039948159539694E-3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.76573326304892597</v>
+      </c>
+      <c r="H26" s="1">
+        <v>99.9039621350381</v>
+      </c>
+      <c r="I26" s="1">
+        <v>63.040011163435103</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-1.2446587414479E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-5.7388735793895203E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.13639651864553601</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5.9308607400045101E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.21255640536114601</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.247256778996817</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9.2479976774501507E-3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.77473672036180596</v>
+      </c>
+      <c r="H27" s="1">
+        <v>99.184090220443196</v>
+      </c>
+      <c r="I27" s="1">
+        <v>62.762824341836897</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-2.0560965125807799E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-0.10817427296905401</v>
+      </c>
+      <c r="N27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.13693411718846499</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6.7102988986181306E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.21563056394097499</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.25855932227452599</v>
+      </c>
+      <c r="F28" s="1">
+        <v>9.3341169793207703E-3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.76924187525121401</v>
+      </c>
+      <c r="H28" s="1">
+        <v>99.186260271203395</v>
+      </c>
+      <c r="I28" s="1">
+        <v>62.288117286940903</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-1.43490022032532E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>-0.119887318439249</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="S28" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="U28" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="V28" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="W28" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.13110062017336399</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.6443060225685094E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.22049083115725401</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.25852582093658499</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9.2993441810087594E-3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.77421912829080397</v>
+      </c>
+      <c r="H29" s="1">
+        <v>100.154024163287</v>
+      </c>
+      <c r="I29" s="1">
+        <v>62.7734687657832</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-2.90443709569819E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-0.216964581364614</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" s="25">
+        <v>1</v>
+      </c>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.133000881307441</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7.5755369265606096E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.21088892932061201</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.25439971938018502</v>
+      </c>
+      <c r="F30" s="1">
+        <v>9.7751005255604494E-3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.78493822916642797</v>
+      </c>
+      <c r="H30" s="1">
+        <v>99.601692698240498</v>
+      </c>
+      <c r="I30" s="1">
+        <v>63.154558468617303</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-3.3805158219978398E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>-0.20351889577233201</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" s="25">
+        <v>0.10853782476885052</v>
+      </c>
+      <c r="P30" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.14341157788216</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6.7759146825523503E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.212893804790972</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.253377795324088</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9.9083487556186102E-3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.77648533816541399</v>
+      </c>
+      <c r="H31" s="1">
+        <v>97.719842873306305</v>
+      </c>
+      <c r="I31" s="1">
+        <v>62.810248409924803</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-1.7217419086163699E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <v>-0.10674980398025399</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="O31" s="25">
+        <v>0.29010591815248443</v>
+      </c>
+      <c r="P31" s="25">
+        <v>0.69214882856371096</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>1</v>
+      </c>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.14112768772936701</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.9686817867433101E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.231668531876424</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.26648002935773801</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9.8647732822336499E-3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.79139348002584098</v>
+      </c>
+      <c r="H32" s="1">
+        <v>96.377181776706706</v>
+      </c>
+      <c r="I32" s="1">
+        <v>62.681575506944398</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-2.12536203658353E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>-0.148697631515849</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O32" s="25">
+        <v>0.40488604811904511</v>
+      </c>
+      <c r="P32" s="25">
+        <v>0.69523523233534346</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>0.98825329071181667</v>
+      </c>
+      <c r="R32" s="25">
+        <v>1</v>
+      </c>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.13673785543295</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6.6496370774104599E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.23795055146761199</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.27032987604375702</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.02895428672956E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.81813742522162103</v>
+      </c>
+      <c r="H33" s="1">
+        <v>96.375953352674003</v>
+      </c>
+      <c r="I33" s="1">
+        <v>62.0968194282814</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-3.5586590416702299E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>-0.36723902704067002</v>
+      </c>
+      <c r="N33" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" s="25">
+        <v>4.7640141813806915E-2</v>
+      </c>
+      <c r="P33" s="25">
+        <v>0.37799224276723403</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>0.35088834623631793</v>
+      </c>
+      <c r="R33" s="25">
+        <v>0.36615398413394468</v>
+      </c>
+      <c r="S33" s="25">
+        <v>1</v>
+      </c>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.13830829792948501</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6.6427746272756494E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.243151484389908</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.283908431362346</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.0475558479359199E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.82319725016594503</v>
+      </c>
+      <c r="H34" s="1">
+        <v>93.336573465122598</v>
+      </c>
+      <c r="I34" s="1">
+        <v>60.538049458729802</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-3.71663963270117E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>-0.27313486297713302</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O34" s="25">
+        <v>0.52481616757883909</v>
+      </c>
+      <c r="P34" s="25">
+        <v>-0.33211283540170289</v>
+      </c>
+      <c r="Q34" s="25">
+        <v>-0.1830546548266854</v>
+      </c>
+      <c r="R34" s="25">
+        <v>-0.14103926790604937</v>
+      </c>
+      <c r="S34" s="25">
+        <v>-0.3939334263987605</v>
+      </c>
+      <c r="T34" s="25">
+        <v>1</v>
+      </c>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.13800311751873601</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6.4217104982783199E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.251006382586695</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.28780902046887302</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.0483004469308299E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.83777248836846996</v>
+      </c>
+      <c r="H35" s="1">
+        <v>92.9276290970014</v>
+      </c>
+      <c r="I35" s="1">
+        <v>59.801178018768503</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-3.7309433707911802E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>-0.29651430896702302</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" s="25">
+        <v>-0.43780610491883287</v>
+      </c>
+      <c r="P35" s="25">
+        <v>-0.56837325021497442</v>
+      </c>
+      <c r="Q35" s="25">
+        <v>-0.55662147301991061</v>
+      </c>
+      <c r="R35" s="25">
+        <v>-0.61637900550762714</v>
+      </c>
+      <c r="S35" s="25">
+        <v>-0.56149945655665756</v>
+      </c>
+      <c r="T35" s="25">
+        <v>0.39662614878681424</v>
+      </c>
+      <c r="U35" s="25">
+        <v>1</v>
+      </c>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.141407546903453</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7.0906109454847904E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.24255306825366699</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.28315383600048899</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.0278998342033101E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.84757000798266802</v>
+      </c>
+      <c r="H36" s="1">
+        <v>93.079059156151004</v>
+      </c>
+      <c r="I36" s="1">
+        <v>59.374178082782699</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-2.4019824460028202E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-0.164009691288901</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="O36" s="25">
+        <v>-0.86289064405642635</v>
+      </c>
+      <c r="P36" s="25">
+        <v>9.482535423563105E-3</v>
+      </c>
+      <c r="Q36" s="25">
+        <v>-4.5775296480025492E-2</v>
+      </c>
+      <c r="R36" s="25">
+        <v>-0.15406706631588091</v>
+      </c>
+      <c r="S36" s="25">
+        <v>3.8856696908505725E-2</v>
+      </c>
+      <c r="T36" s="25">
+        <v>-0.54290270173771848</v>
+      </c>
+      <c r="U36" s="25">
+        <v>0.24367270403734195</v>
+      </c>
+      <c r="V36" s="25">
+        <v>1</v>
+      </c>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.14913021772592899</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6.7115589601662001E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.25657754133761801</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.30377518433455503</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.0095894172697999E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.84681016877321502</v>
+      </c>
+      <c r="H37" s="1">
+        <v>95.730221391019995</v>
+      </c>
+      <c r="I37" s="1">
+        <v>57.0802847796976</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-2.4357028965960498E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>-0.27400853468395397</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="O37" s="25">
+        <v>-0.79245057950921505</v>
+      </c>
+      <c r="P37" s="25">
+        <v>-0.29285537269328754</v>
+      </c>
+      <c r="Q37" s="25">
+        <v>-0.3353217019690134</v>
+      </c>
+      <c r="R37" s="25">
+        <v>-0.44099413824840084</v>
+      </c>
+      <c r="S37" s="25">
+        <v>-0.22452936061643616</v>
+      </c>
+      <c r="T37" s="25">
+        <v>-0.18666954641719968</v>
+      </c>
+      <c r="U37" s="25">
+        <v>0.67979260399049246</v>
+      </c>
+      <c r="V37" s="25">
+        <v>0.62177312832454701</v>
+      </c>
+      <c r="W37" s="25">
+        <v>1</v>
+      </c>
+      <c r="X37" s="25"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.15045185486528401</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6.8996663945782299E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.26646353231708197</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.30274951477519702</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.03120432638022E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.85613431532221196</v>
+      </c>
+      <c r="H38" s="1">
+        <v>93.591618118435306</v>
+      </c>
+      <c r="I38" s="1">
+        <v>56.0827434653946</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-3.7845454023899397E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>-0.26991404719460999</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" s="26">
+        <v>-0.64467014161440506</v>
+      </c>
+      <c r="P38" s="26">
+        <v>-0.27014500719487122</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>-0.40942662336058044</v>
+      </c>
+      <c r="R38" s="26">
+        <v>-0.48295248966873705</v>
+      </c>
+      <c r="S38" s="26">
+        <v>-0.27123107387257389</v>
+      </c>
+      <c r="T38" s="26">
+        <v>-3.5324229050516916E-2</v>
+      </c>
+      <c r="U38" s="26">
+        <v>0.682119678785436</v>
+      </c>
+      <c r="V38" s="26">
+        <v>0.46618854691280709</v>
+      </c>
+      <c r="W38" s="26">
+        <v>0.85101804545706794</v>
+      </c>
+      <c r="X38" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.14399587256865501</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7.3996526612517197E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.26210866448966402</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.29931380512021999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.0225571699129399E-2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.87537754015131097</v>
+      </c>
+      <c r="H39" s="1">
+        <v>94.245720953512205</v>
+      </c>
+      <c r="I39" s="1">
+        <v>55.6935688941957</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-1.05477627200868E-2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>-0.10457412952635201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.14102992666118599</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6.6270433508039905E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.244813755319464</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.28813237923239299</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9.9582222026667905E-3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.89715744624278404</v>
+      </c>
+      <c r="H40" s="1">
+        <v>94.434615794870197</v>
+      </c>
+      <c r="I40" s="1">
+        <v>56.733576628423897</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-1.37768283772957E-2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>-0.11513464337511101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.15445183562303999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6.7714378523513197E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.23993597001276401</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.28305488713371701</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.1060944803817399E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.89385407288678498</v>
+      </c>
+      <c r="H41" s="1">
+        <v>94.440631552319303</v>
+      </c>
+      <c r="I41" s="1">
+        <v>56.758052249988502</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-2.8283270940815199E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>-0.28934252200828797</v>
+      </c>
+      <c r="O41" t="s">
+        <v>260</v>
+      </c>
+      <c r="P41" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.13711642586621001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6.7600972915018404E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.25074472930790997</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.28887710146378198</v>
+      </c>
+      <c r="F42" s="1">
+        <v>9.8889937721308094E-3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.89514266614772897</v>
+      </c>
+      <c r="H42" s="1">
+        <v>95.607417964886196</v>
+      </c>
+      <c r="I42" s="1">
+        <v>58.502119466874603</v>
+      </c>
+      <c r="J42" s="1">
+        <v>-3.5715087789012202E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>-0.228544212674759</v>
+      </c>
+      <c r="N42" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-0.34170227883128218</v>
+      </c>
+      <c r="P42" s="28">
+        <v>0.10098533303828471</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>-0.43780610491883287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.14559879883704899</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6.6382441273466403E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.243831503046539</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.28283291904558</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9.8939847364375496E-3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.90871854437494404</v>
+      </c>
+      <c r="H43" s="1">
+        <v>94.940913909976402</v>
+      </c>
+      <c r="I43" s="1">
+        <v>58.5451660047164</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-2.27539032547589E-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>-0.18043223154193999</v>
+      </c>
+      <c r="N43" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-0.47208109632139994</v>
+      </c>
+      <c r="P43" s="28">
+        <v>0.11337258940372504</v>
+      </c>
+      <c r="Q43" s="28">
+        <v>-0.56837325021497442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.146342528466676</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6.8874015106193606E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.25491929122793799</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.29400226488639503</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9.8228674789270203E-3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.87964187340821098</v>
+      </c>
+      <c r="H44" s="1">
+        <v>94.976420074881503</v>
+      </c>
+      <c r="I44" s="1">
+        <v>57.556111444540598</v>
+      </c>
+      <c r="J44" s="1">
+        <v>-1.1572222891855201E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>-3.5889198347595901E-2</v>
+      </c>
+      <c r="N44" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="O44" s="1">
+        <v>-0.45788488385093451</v>
+      </c>
+      <c r="P44" s="28">
+        <v>-2.5972737342703986E-2</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>-0.55662147301991061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.14973773630666801</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7.1344363657248694E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.25334628419216598</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.29057274970670999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.00262868237554E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.90290739932766395</v>
+      </c>
+      <c r="H45" s="1">
+        <v>94.713499802889302</v>
+      </c>
+      <c r="I45" s="1">
+        <v>57.618626339122997</v>
+      </c>
+      <c r="J45" s="1">
+        <v>-1.0684185145493101E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>-9.4608407602035996E-2</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O45">
+        <v>-0.52863957346744184</v>
+      </c>
+      <c r="P45">
+        <v>-0.10215668822589499</v>
+      </c>
+      <c r="Q45">
+        <v>-0.61637900550762714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.159609263817831</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7.6505231910950794E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.25876331867969199</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.30247530971027398</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9.8947684244165696E-3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.90286756870025897</v>
+      </c>
+      <c r="H46" s="1">
+        <v>96.821215945191099</v>
+      </c>
+      <c r="I46" s="1">
+        <v>57.239295395302698</v>
+      </c>
+      <c r="J46" s="1">
+        <v>-1.56854001446525E-2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>-0.117327841448574</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="O46">
+        <v>-3.4447729562080039E-2</v>
+      </c>
+      <c r="P46">
+        <v>-0.26102451516728875</v>
+      </c>
+      <c r="Q46">
+        <v>-0.56149945655665756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.15856276286068</v>
+      </c>
+      <c r="C47" s="1">
+        <v>8.0094716577738007E-2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.27977974423108298</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.32367834762040198</v>
+      </c>
+      <c r="F47" s="1">
+        <v>9.8551712903107505E-3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.90150824656061501</v>
+      </c>
+      <c r="H47" s="1">
+        <v>95.343728408310696</v>
+      </c>
+      <c r="I47" s="1">
+        <v>55.402240510593103</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-1.5686320516498799E-2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>-8.9554937374888996E-2</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O47">
+        <v>4.1995500616000707E-2</v>
+      </c>
+      <c r="P47">
+        <v>-0.27551660191880112</v>
+      </c>
+      <c r="Q47">
+        <v>0.39662614878681424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.158670955221832</v>
+      </c>
+      <c r="C48" s="1">
+        <v>7.1995938938969994E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.27608116209452199</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.312322814667298</v>
+      </c>
+      <c r="F48" s="1">
+        <v>9.7179013296872906E-3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.90718749714279601</v>
+      </c>
+      <c r="H48" s="1">
+        <v>96.402112018411103</v>
+      </c>
+      <c r="I48" s="1">
+        <v>55.310186064570502</v>
+      </c>
+      <c r="J48" s="1">
+        <v>-5.9632486456130196E-3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>-5.0411132127665299E-2</v>
+      </c>
+      <c r="N48" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.152509143216884</v>
+      </c>
+      <c r="C49" s="1">
+        <v>9.1712971958198497E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.28541561071003302</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.316974482908082</v>
+      </c>
+      <c r="F49" s="1">
+        <v>9.5190455767464096E-3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.91465161422095997</v>
+      </c>
+      <c r="H49" s="1">
+        <v>98.677915481148602</v>
+      </c>
+      <c r="I49" s="1">
+        <v>54.538161768004201</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-1.09249264630321E-2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>-0.16064307883492299</v>
+      </c>
+      <c r="N49" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="O49" s="25">
+        <v>7.7135354072190897E-3</v>
+      </c>
+      <c r="P49" s="25">
+        <v>-0.25936352278344754</v>
+      </c>
+      <c r="Q49" s="25">
+        <v>0.24367270403734195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.152153668533374</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7.8657682868519402E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.27558953681311099</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.314968277452568</v>
+      </c>
+      <c r="F50" s="1">
+        <v>9.0453410038887905E-3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.91704882861324</v>
+      </c>
+      <c r="H50" s="1">
+        <v>93.791785399390605</v>
+      </c>
+      <c r="I50" s="1">
+        <v>53.852307124884398</v>
+      </c>
+      <c r="J50" s="1">
+        <v>-1.7671567373572901E-2</v>
+      </c>
+      <c r="K50" s="1">
+        <v>-0.20513749643587101</v>
+      </c>
+      <c r="N50" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="O50" s="25">
+        <v>0.39835368089935513</v>
+      </c>
+      <c r="P50" s="25">
+        <v>0.29788423384489948</v>
+      </c>
+      <c r="Q50" s="25">
+        <v>0.67979260399049246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.15866380559232199</v>
+      </c>
+      <c r="C51" s="1">
+        <v>8.9075018924449106E-2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.29147379044511501</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.32829599270757098</v>
+      </c>
+      <c r="F51" s="1">
+        <v>9.2063513838459704E-3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.92506175361395604</v>
+      </c>
+      <c r="H51" s="1">
+        <v>91.642891363927006</v>
+      </c>
+      <c r="I51" s="1">
+        <v>55.259206079507003</v>
+      </c>
+      <c r="J51" s="1">
+        <v>-1.7161319711229899E-2</v>
+      </c>
+      <c r="K51" s="1">
+        <v>-0.167928884917981</v>
+      </c>
+      <c r="N51" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="O51" s="26">
+        <v>0.44578125392018297</v>
+      </c>
+      <c r="P51" s="26">
+        <v>0.20566508440393758</v>
+      </c>
+      <c r="Q51" s="26">
+        <v>0.682119678785436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.16125112006126599</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8.5494805154596995E-2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.29363622872651002</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.33267604841188497</v>
+      </c>
+      <c r="F52" s="1">
+        <v>9.3118452140381596E-3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.922498000683033</v>
+      </c>
+      <c r="H52" s="1">
+        <v>89.506310857767403</v>
+      </c>
+      <c r="I52" s="1">
+        <v>56.570216928186198</v>
+      </c>
+      <c r="J52" s="1">
+        <v>-1.5516330890323801E-2</v>
+      </c>
+      <c r="K52" s="1">
+        <v>-0.28179650798238598</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.16385635153811201</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7.7134481755162798E-2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.28627234949296898</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.32736707412863802</v>
+      </c>
+      <c r="F53" s="1">
+        <v>9.0721798281818197E-3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.91533547038741203</v>
+      </c>
+      <c r="H53" s="1">
+        <v>89.399460174573804</v>
+      </c>
+      <c r="I53" s="1">
+        <v>57.822606208793403</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-1.0313062052633701E-2</v>
+      </c>
+      <c r="K53" s="1">
+        <v>-8.3426200568577497E-2</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.161485011543963</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6.8096461964837499E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.28012521362603898</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.31612289438550201</v>
+      </c>
+      <c r="F54" s="1">
+        <v>8.9857783500503306E-3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.92003846227414698</v>
+      </c>
+      <c r="H54" s="1">
+        <v>93.953125388414307</v>
+      </c>
+      <c r="I54" s="1">
+        <v>57.702764451961301</v>
+      </c>
+      <c r="J54" s="1">
+        <v>-9.8535991244470909E-3</v>
+      </c>
+      <c r="K54" s="1">
+        <v>-1.9352798932124399E-2</v>
+      </c>
+      <c r="N54" s="29"/>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.16290893802355999</v>
+      </c>
+      <c r="C55" s="1">
+        <v>7.7243077642943594E-2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.27703802635619501</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.31763564371529601</v>
+      </c>
+      <c r="F55" s="1">
+        <v>8.6353401178422603E-3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.91982688867204698</v>
+      </c>
+      <c r="H55" s="1">
+        <v>100.04713275419201</v>
+      </c>
+      <c r="I55" s="1">
+        <v>58.435058195764299</v>
+      </c>
+      <c r="J55" s="1">
+        <v>-2.7566097927517099E-3</v>
+      </c>
+      <c r="K55" s="1">
+        <v>-2.4379425617752401E-2</v>
+      </c>
+      <c r="N55" s="29"/>
+      <c r="O55" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>65</v>
+      </c>
+      <c r="R55" t="s">
+        <v>261</v>
+      </c>
+      <c r="S55" t="s">
+        <v>65</v>
+      </c>
+      <c r="T55" t="s">
+        <v>259</v>
+      </c>
+      <c r="U55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.16493275790672099</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8.1478716746989602E-2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.28009891830047001</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.31985426058279398</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8.2719818397460794E-3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.90669662078030899</v>
+      </c>
+      <c r="H56" s="1">
+        <v>101.74470706216201</v>
+      </c>
+      <c r="I56" s="1">
+        <v>59.507933641017701</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1.10628269601852E-2</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.12874948918108001</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.169553232838586</v>
+      </c>
+      <c r="C57" s="1">
+        <v>8.5214923933853201E-2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.27944558603116798</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.31288663312529602</v>
+      </c>
+      <c r="F57" s="1">
+        <v>8.1132652778467297E-3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.898209014994099</v>
+      </c>
+      <c r="H57" s="1">
+        <v>103.705249407517</v>
+      </c>
+      <c r="I57" s="1">
+        <v>61.6405775046127</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1.3344910081664999E-2</v>
+      </c>
+      <c r="K57" s="1">
+        <v>-8.6765920722956094E-2</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="O57" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" s="1">
+        <v>-0.34170227883128218</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>65</v>
+      </c>
+      <c r="R57" s="28">
+        <v>0.10098533303828471</v>
+      </c>
+      <c r="S57" t="s">
+        <v>65</v>
+      </c>
+      <c r="T57" s="28">
+        <v>-0.43780610491883287</v>
+      </c>
+      <c r="U57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.16305742905610601</v>
+      </c>
+      <c r="C58" s="1">
+        <v>9.2874549835042994E-2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.29718270184830597</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.33002233436921202</v>
+      </c>
+      <c r="F58" s="1">
+        <v>8.4294615120922706E-3</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.89487497321930798</v>
+      </c>
+      <c r="H58" s="1">
+        <v>105.15179542696799</v>
+      </c>
+      <c r="I58" s="1">
+        <v>71.574072940667705</v>
+      </c>
+      <c r="J58" s="1">
+        <v>9.8755236546035595E-3</v>
+      </c>
+      <c r="K58" s="1">
+        <v>-4.9821356090344097E-2</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="O58" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" s="1">
+        <v>-0.47208109632139994</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>65</v>
+      </c>
+      <c r="R58" s="28">
+        <v>0.11337258940372504</v>
+      </c>
+      <c r="S58" t="s">
+        <v>65</v>
+      </c>
+      <c r="T58" s="28">
+        <v>-0.56837325021497442</v>
+      </c>
+      <c r="U58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.16044462116013899</v>
+      </c>
+      <c r="C59" s="1">
+        <v>8.9010632089088701E-2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.291866663148314</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.32459131922342299</v>
+      </c>
+      <c r="F59" s="1">
+        <v>8.4525677554333004E-3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.88573746630915795</v>
+      </c>
+      <c r="H59" s="1">
+        <v>104.116067524846</v>
+      </c>
+      <c r="I59" s="1">
+        <v>70.726786321670502</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1.50974808643851E-2</v>
+      </c>
+      <c r="K59" s="1">
+        <v>-1.05144285526325E-2</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="O59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" s="1">
+        <v>-0.45788488385093451</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>65</v>
+      </c>
+      <c r="R59" s="28">
+        <v>-2.5972737342703986E-2</v>
+      </c>
+      <c r="S59" t="s">
+        <v>65</v>
+      </c>
+      <c r="T59" s="28">
+        <v>-0.55662147301991061</v>
+      </c>
+      <c r="U59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.16353459003600199</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.108918141553884</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.29822820648987503</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.32841665582049001</v>
+      </c>
+      <c r="F60" s="1">
+        <v>8.0175444398244908E-3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.88847273284720796</v>
+      </c>
+      <c r="H60" s="1">
+        <v>106.379642351865</v>
+      </c>
+      <c r="I60" s="1">
+        <v>68.3190025186111</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2.5331503421909901E-2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.147965920514359</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="O60" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" s="1">
+        <v>-0.52863957346744184</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>65</v>
+      </c>
+      <c r="R60" s="1">
+        <v>-0.10215668822589499</v>
+      </c>
+      <c r="S60" t="s">
+        <v>65</v>
+      </c>
+      <c r="T60" s="1">
+        <v>-0.61637900550762714</v>
+      </c>
+      <c r="U60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.162642693142905</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7.6471834631981095E-2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.27261543733651</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.30227072342280198</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7.6805398224553496E-3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.89042891552339798</v>
+      </c>
+      <c r="H61" s="1">
+        <v>109.88842836718101</v>
+      </c>
+      <c r="I61" s="1">
+        <v>64.414337294551004</v>
+      </c>
+      <c r="J61" s="1">
+        <v>3.73063944653243E-3</v>
+      </c>
+      <c r="K61" s="1">
+        <v>-5.9249236620856703E-2</v>
+      </c>
+      <c r="N61" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" s="1">
+        <v>-3.4447729562080039E-2</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>65</v>
+      </c>
+      <c r="R61" s="1">
+        <v>-0.26102451516728875</v>
+      </c>
+      <c r="S61" t="s">
+        <v>65</v>
+      </c>
+      <c r="T61" s="1">
+        <v>-0.56149945655665756</v>
+      </c>
+      <c r="U61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.16625055902164901</v>
+      </c>
+      <c r="C62" s="1">
+        <v>9.2213921037288496E-2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.29724470506596901</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.32870896563235502</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7.7448924389222004E-3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.88872774200293303</v>
+      </c>
+      <c r="H62" s="1">
+        <v>111.273507663891</v>
+      </c>
+      <c r="I62" s="1">
+        <v>64.795047094323294</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1.7896641855385899E-2</v>
+      </c>
+      <c r="K62" s="1">
+        <v>5.2720817259595897E-2</v>
+      </c>
+      <c r="N62" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" s="1">
+        <v>4.1995500616000707E-2</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>65</v>
+      </c>
+      <c r="R62" s="1">
+        <v>-0.27551660191880112</v>
+      </c>
+      <c r="S62" t="s">
+        <v>65</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0.39662614878681424</v>
+      </c>
+      <c r="U62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.161861375382545</v>
+      </c>
+      <c r="C63" s="1">
+        <v>9.4597201005835005E-2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.29801535977650601</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.32907288173768601</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7.5284322514663996E-3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.88343288294925604</v>
+      </c>
+      <c r="H63" s="1">
+        <v>111.866260784926</v>
+      </c>
+      <c r="I63" s="1">
+        <v>65.501922186990001</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2.11009781419602E-2</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.13271826109823201</v>
+      </c>
+      <c r="N63" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="O63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" s="28">
+        <v>7.7135354072190897E-3</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>65</v>
+      </c>
+      <c r="R63" s="28">
+        <v>-0.25936352278344754</v>
+      </c>
+      <c r="S63" t="s">
+        <v>65</v>
+      </c>
+      <c r="T63" s="28">
+        <v>0.24367270403734195</v>
+      </c>
+      <c r="U63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.158862156406987</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.10013814993645501</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.30051047122091501</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.33177772490512503</v>
+      </c>
+      <c r="F64" s="1">
+        <v>7.6935286510363904E-3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.88079154165945095</v>
+      </c>
+      <c r="H64" s="1">
+        <v>113.579392156447</v>
+      </c>
+      <c r="I64" s="1">
+        <v>67.233336463564001</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2.7963426041327101E-2</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.20237986669777699</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="O64" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" s="28">
+        <v>0.39835368089935513</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>65</v>
+      </c>
+      <c r="R64" s="28">
+        <v>0.29788423384489948</v>
+      </c>
+      <c r="S64" t="s">
+        <v>65</v>
+      </c>
+      <c r="T64" s="28">
+        <v>0.67979260399049246</v>
+      </c>
+      <c r="U64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.15233681559112799</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.101543828282377</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.28389725918624598</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.31483020383316701</v>
+      </c>
+      <c r="F65" s="1">
+        <v>8.0486604086943206E-3</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.88302048061827099</v>
+      </c>
+      <c r="H65" s="1">
+        <v>112.73216684716</v>
+      </c>
+      <c r="I65" s="1">
+        <v>68.799734402398599</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2.8281455855793499E-2</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3.8824129858277698E-2</v>
+      </c>
+      <c r="N65" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" s="28">
+        <v>0.44578125392018297</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>65</v>
+      </c>
+      <c r="R65" s="28">
+        <v>0.20566508440393758</v>
+      </c>
+      <c r="S65" t="s">
+        <v>65</v>
+      </c>
+      <c r="T65" s="28">
+        <v>0.682119678785436</v>
+      </c>
+      <c r="U65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.14890256057389001</v>
+      </c>
+      <c r="C66" s="1">
+        <v>9.06840678375678E-2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.25088185428116999</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.279405100342905</v>
+      </c>
+      <c r="F66" s="1">
+        <v>8.1259101272116406E-3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.87644512802698005</v>
+      </c>
+      <c r="H66" s="1">
+        <v>113.36631978931</v>
+      </c>
+      <c r="I66" s="1">
+        <v>68.203627619102505</v>
+      </c>
+      <c r="J66" s="1">
+        <v>2.9657070572846101E-2</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.31487319406984099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.14460078353289299</v>
+      </c>
+      <c r="C67" s="1">
+        <v>8.7282218062545505E-2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.26380665817803201</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.29369464421075198</v>
+      </c>
+      <c r="F67" s="1">
+        <v>8.0733388168286301E-3</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.87642725514462305</v>
+      </c>
+      <c r="H67" s="1">
+        <v>113.373782340549</v>
+      </c>
+      <c r="I67" s="1">
+        <v>74.232984632359006</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3.6597887142294998E-2</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.360897645144932</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.14051919271615201</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.100694555189117</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.264015296188926</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.29186628543631399</v>
+      </c>
+      <c r="F68" s="1">
+        <v>8.2196148928570696E-3</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.88007491204571398</v>
+      </c>
+      <c r="H68" s="1">
+        <v>113.68879721762499</v>
+      </c>
+      <c r="I68" s="1">
+        <v>76.911614496393398</v>
+      </c>
+      <c r="J68" s="1">
+        <v>7.1135685489638195E-2</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1.06238435235477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.13997228092786401</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.113128462109592</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.26857013637029598</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.29508890655339098</v>
+      </c>
+      <c r="F69" s="1">
+        <v>7.9493300630136699E-3</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.87018783010809597</v>
+      </c>
+      <c r="H69" s="1">
+        <v>113.294976028566</v>
+      </c>
+      <c r="I69" s="1">
+        <v>80.587619510740495</v>
+      </c>
+      <c r="J69" s="1">
+        <v>5.4645113300815097E-2</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.28701090302445997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.14820632374818701</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.11484551406954401</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.26775495991286802</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.29761859001048202</v>
+      </c>
+      <c r="F70" s="1">
+        <v>7.5544455240185299E-3</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.86402079701368695</v>
+      </c>
+      <c r="H70" s="1">
+        <v>111.654021136726</v>
+      </c>
+      <c r="I70" s="1">
+        <v>83.707275198216706</v>
+      </c>
+      <c r="J70" s="1">
+        <v>4.4916193084391202E-2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.97671078198265004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.142186838028214</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.122883869794868</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.28644232856569102</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.31568973447440501</v>
+      </c>
+      <c r="F71" s="1">
+        <v>7.3131910128678103E-3</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.86122976213443003</v>
+      </c>
+      <c r="H71" s="1">
+        <v>112.48975556443</v>
+      </c>
+      <c r="I71" s="1">
+        <v>80.135898745437402</v>
+      </c>
+      <c r="J71" s="1">
+        <v>4.6724688532707302E-2</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.276250592874072</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.135574133324318</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.111317582424315</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.26599337216910302</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.29505352236685101</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7.5443332593306501E-3</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.84646441645885395</v>
+      </c>
+      <c r="H72" s="1">
+        <v>109.14471871272799</v>
+      </c>
+      <c r="I72" s="1">
+        <v>86.528397779617407</v>
+      </c>
+      <c r="J72" s="1">
+        <v>6.3596849270622993E-2</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.43281010723561297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.13624452860164499</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.117021726180449</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.27739950700944399</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.30218036860886899</v>
+      </c>
+      <c r="F73" s="1">
+        <v>7.4510260967657399E-3</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.82625244443746304</v>
+      </c>
+      <c r="H73" s="1">
+        <v>108.94545737564199</v>
+      </c>
+      <c r="I73" s="1">
+        <v>83.804669659439497</v>
+      </c>
+      <c r="J73" s="1">
+        <v>6.6621465458502394E-2</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.277811527244893</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.13066490193034799</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.114695941266048</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.266104930509999</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.29147004891121597</v>
+      </c>
+      <c r="F74" s="1">
+        <v>7.7040227077676098E-3</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.80324286763347297</v>
+      </c>
+      <c r="H74" s="1">
+        <v>108.033865218</v>
+      </c>
+      <c r="I74" s="1">
+        <v>85.6764978371572</v>
+      </c>
+      <c r="J74" s="1">
+        <v>8.0907090146530802E-2</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.54321418173149605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.128045929816653</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.10451467257932701</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.27019853555940498</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.296296896946874</v>
+      </c>
+      <c r="F75" s="1">
+        <v>8.4072355929431502E-3</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.77986205066886605</v>
+      </c>
+      <c r="H75" s="1">
+        <v>102.29719283391699</v>
+      </c>
+      <c r="I75" s="1">
+        <v>81.8723993257789</v>
+      </c>
+      <c r="J75" s="1">
+        <v>6.1336712922375101E-2</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.513268475211893</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.124646918300481</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.113820203181832</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.27663481485441799</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.30430271314434298</v>
+      </c>
+      <c r="F76" s="1">
+        <v>9.2584833861607697E-3</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.78021621936121199</v>
+      </c>
+      <c r="H76" s="1">
+        <v>96.706100169216498</v>
+      </c>
+      <c r="I76" s="1">
+        <v>86.121671430341294</v>
+      </c>
+      <c r="J76" s="1">
+        <v>7.2216237471548997E-2</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.39346740311470102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.14710472370317401</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.108453970195697</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.36632265175302398</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.39756311891659601</v>
+      </c>
+      <c r="F77" s="1">
+        <v>8.4923764067526605E-3</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.79227702472662198</v>
+      </c>
+      <c r="H77" s="1">
+        <v>85.0838962844918</v>
+      </c>
+      <c r="I77" s="1">
+        <v>98.612256278548301</v>
+      </c>
+      <c r="J77" s="1">
+        <v>5.0858534800749498E-2</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.24062577232093901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.14413692598111599</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.12221995874269199</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.33549982067172501</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.366092161215329</v>
+      </c>
+      <c r="F78" s="1">
+        <v>9.2417700558131994E-3</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.808426255573926</v>
+      </c>
+      <c r="H78" s="1">
+        <v>84.355589671235194</v>
+      </c>
+      <c r="I78" s="1">
+        <v>88.168242244640595</v>
+      </c>
+      <c r="J78" s="1">
+        <v>2.5403756795572399E-2</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.102363905063467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.149001544866945</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.116785063205654</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.23277417741270101</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.26839145278209597</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8.6668715995197997E-3</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.81765192621975402</v>
+      </c>
+      <c r="H79" s="1">
+        <v>87.518645615798903</v>
+      </c>
+      <c r="I79" s="1">
+        <v>86.681156610888195</v>
+      </c>
+      <c r="J79" s="1">
+        <v>3.4832002835858099E-2</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.19697443279250301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.14844684389176199</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.12860316159441901</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.375443717187814</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.40722433502425598</v>
+      </c>
+      <c r="F80" s="1">
+        <v>8.0339438772315704E-3</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.82127694922558403</v>
+      </c>
+      <c r="H80" s="1">
+        <v>90.961633429051304</v>
+      </c>
+      <c r="I80" s="1">
+        <v>82.636121423945994</v>
+      </c>
+      <c r="J80" s="1">
+        <v>3.7098005444928403E-2</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.122695764984599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.14437251644193499</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.112544487980737</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.248867328039547</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.27558859046450801</v>
+      </c>
+      <c r="F81" s="1">
+        <v>8.0414240576202299E-3</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.82530731458939299</v>
+      </c>
+      <c r="H81" s="1">
+        <v>93.824565258355705</v>
+      </c>
+      <c r="I81" s="1">
+        <v>81.434781966372199</v>
+      </c>
+      <c r="J81" s="1">
+        <v>6.8978064387852098E-3</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1.20085210885882E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.14372418108412199</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.13120092840521</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.34030377063128198</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.36792778942315701</v>
+      </c>
+      <c r="F82" s="1">
+        <v>7.7618940831709103E-3</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.82974479032890103</v>
+      </c>
+      <c r="H82" s="1">
+        <v>94.063162166820504</v>
+      </c>
+      <c r="I82" s="1">
+        <v>85.898830263069499</v>
+      </c>
+      <c r="J82" s="1">
+        <v>2.9048769272409201E-2</v>
+      </c>
+      <c r="K82" s="1">
+        <v>-2.3233496648126101E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.13638627294824199</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.11495284024429001</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.26920674737005501</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.293999757374382</v>
+      </c>
+      <c r="F83" s="1">
+        <v>8.0373210848190702E-3</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.831528147010267</v>
+      </c>
+      <c r="H83" s="1">
+        <v>92.331094052875102</v>
+      </c>
+      <c r="I83" s="1">
+        <v>89.767468049414006</v>
+      </c>
+      <c r="J83" s="1">
+        <v>3.00683939649748E-2</v>
+      </c>
+      <c r="K83" s="1">
+        <v>4.3713737301673002E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.13853299351007001</v>
+      </c>
+      <c r="C84" s="1">
+        <v>7.8515939255232606E-2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.29273716191574101</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.32027039095517401</v>
+      </c>
+      <c r="F84" s="1">
+        <v>7.6790659381324299E-3</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.81484639253871904</v>
+      </c>
+      <c r="H84" s="1">
+        <v>93.173733870268407</v>
+      </c>
+      <c r="I84" s="1">
+        <v>89.463051172204302</v>
+      </c>
+      <c r="J84" s="1">
+        <v>3.5485739955210802E-2</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.17069446936329999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.13282959279397799</v>
+      </c>
+      <c r="C85" s="1">
+        <v>8.5002769692350405E-2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.24962731959457801</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.269217352340266</v>
+      </c>
+      <c r="F85" s="1">
+        <v>7.8030872337295203E-3</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.81743801280484196</v>
+      </c>
+      <c r="H85" s="1">
+        <v>92.780574933428397</v>
+      </c>
+      <c r="I85" s="1">
+        <v>90.698033536759496</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1.34575607054344E-2</v>
+      </c>
+      <c r="K85" s="1">
+        <v>-2.2148885635099699E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.13284215521993201</v>
+      </c>
+      <c r="C86" s="1">
+        <v>8.5493121059498106E-2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.259120798189104</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.29581433893132603</v>
+      </c>
+      <c r="F86" s="1">
+        <v>8.1223279246710797E-3</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.80699866072167603</v>
+      </c>
+      <c r="H86" s="1">
+        <v>90.768414146160794</v>
+      </c>
+      <c r="I86" s="1">
+        <v>94.241579700093396</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1.8629790266313201E-2</v>
+      </c>
+      <c r="K86" s="1">
+        <v>8.3768622936385304E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.14039616068986399</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.11776573128173599</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.30632813985436202</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.34083344691782202</v>
+      </c>
+      <c r="F87" s="1">
+        <v>7.8790169038735897E-3</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.81778850611388298</v>
+      </c>
+      <c r="H87" s="1">
+        <v>90.779958128117698</v>
+      </c>
+      <c r="I87" s="1">
+        <v>100.783451514082</v>
+      </c>
+      <c r="J87" s="1">
+        <v>3.8308079088379299E-2</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.201080930649187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.13374414938286799</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.12548531023020501</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.29191672099174598</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.31919398364065699</v>
+      </c>
+      <c r="F88" s="1">
+        <v>8.5370231463381008E-3</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.82226148869881699</v>
+      </c>
+      <c r="H88" s="1">
+        <v>90.195486663913002</v>
+      </c>
+      <c r="I88" s="1">
+        <v>111.920338455017</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1.28966926979331E-2</v>
+      </c>
+      <c r="K88" s="1">
+        <v>-0.160965208824007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.13979052805893699</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.12964092559663901</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.33370106099047903</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.36484103087935299</v>
+      </c>
+      <c r="F89" s="1">
+        <v>8.3293697661512602E-3</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.82161203768550795</v>
+      </c>
+      <c r="H89" s="1">
+        <v>87.481847979497303</v>
+      </c>
+      <c r="I89" s="1">
+        <v>112.97534169022001</v>
+      </c>
+      <c r="J89" s="1">
+        <v>-6.1089630636200201E-3</v>
+      </c>
+      <c r="K89" s="1">
+        <v>8.2713678699356696E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.13348867969346201</v>
+      </c>
+      <c r="C90" s="1">
+        <v>9.8150894840808106E-2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.28033187124940601</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.30374066004919498</v>
+      </c>
+      <c r="F90" s="1">
+        <v>7.9692104593518005E-3</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.82280077310683897</v>
+      </c>
+      <c r="H90" s="1">
+        <v>88.756411975992407</v>
+      </c>
+      <c r="I90" s="1">
+        <v>102.592029467912</v>
+      </c>
+      <c r="J90" s="1">
+        <v>4.1868254968212603E-3</v>
+      </c>
+      <c r="K90" s="1">
+        <v>9.80938591137865E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.136102035776269</v>
+      </c>
+      <c r="C91" s="1">
+        <v>9.2951959885395799E-2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.28869027858997298</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.30971610503549202</v>
+      </c>
+      <c r="F91" s="1">
+        <v>8.2303010575020905E-3</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.82232913757673698</v>
+      </c>
+      <c r="H91" s="1">
+        <v>85.528038657420794</v>
+      </c>
+      <c r="I91" s="1">
+        <v>102.265062096291</v>
+      </c>
+      <c r="J91" s="1">
+        <v>6.1170589674085098E-2</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.20809523361124399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.13410638088870999</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.101565693820049</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.307878136003852</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.33280351301177002</v>
+      </c>
+      <c r="F92" s="1">
+        <v>8.2271966133675E-3</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.82393011963788598</v>
+      </c>
+      <c r="H92" s="1">
+        <v>84.776060181380501</v>
+      </c>
+      <c r="I92" s="1">
+        <v>98.8068133925441</v>
+      </c>
+      <c r="J92" s="1">
+        <v>8.3965495569226306E-2</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.52868506479198396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.13088371123425499</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.112428112192563</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.32072776343270898</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.34368760133133403</v>
+      </c>
+      <c r="F93" s="1">
+        <v>8.4603573353473106E-3</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.82291129999131896</v>
+      </c>
+      <c r="H93" s="1">
+        <v>84.842246089432194</v>
+      </c>
+      <c r="I93" s="1">
+        <v>96.589811707372107</v>
+      </c>
+      <c r="J93" s="1">
+        <v>6.3265298355637406E-2</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.247961564160638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.13338781290137799</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.123115012354203</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.28430521582045698</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.30813654994862899</v>
+      </c>
+      <c r="F94" s="1">
+        <v>8.5556706000571008E-3</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.81799908116908104</v>
+      </c>
+      <c r="H94" s="1">
+        <v>84.7903556451474</v>
+      </c>
+      <c r="I94" s="1">
+        <v>94.012440126895598</v>
+      </c>
+      <c r="J94" s="1">
+        <v>6.3986216880668301E-2</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.194978205474653</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.137539991873562</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.12338418075195901</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.35931714676354798</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.37922912863658498</v>
+      </c>
+      <c r="F95" s="1">
+        <v>8.6674881580960997E-3</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.83259300779282797</v>
+      </c>
+      <c r="H95" s="1">
+        <v>81.5262342961733</v>
+      </c>
+      <c r="I95" s="1">
+        <v>91.284419653665296</v>
+      </c>
+      <c r="J95" s="1">
+        <v>3.1283759020993999E-2</v>
+      </c>
+      <c r="K95" s="1">
+        <v>3.1866319334270497E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.13827797138984399</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.13753443211482799</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.32804979048036598</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.35608980580660299</v>
+      </c>
+      <c r="F96" s="1">
+        <v>8.5446832549782806E-3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.80219418899937101</v>
+      </c>
+      <c r="H96" s="1">
+        <v>78.719013493790797</v>
+      </c>
+      <c r="I96" s="1">
+        <v>86.077626200183801</v>
+      </c>
+      <c r="J96" s="1">
+        <v>3.5041160103551197E-2</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0.10211269588062399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.14059697120072401</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.14177421531769799</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.31949523405560998</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.34890836781873702</v>
+      </c>
+      <c r="F97" s="1">
+        <v>8.4545175811293199E-3</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.81880775562835795</v>
+      </c>
+      <c r="H97" s="1">
+        <v>78.001816944409399</v>
+      </c>
+      <c r="I97" s="1">
+        <v>86.233507654516998</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-1.4535246973193699E-2</v>
+      </c>
+      <c r="K97" s="1">
+        <v>-0.24513128765362199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.14473727095289399</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.16042996211676799</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.37087920745109698</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0.399041779712765</v>
+      </c>
+      <c r="F98" s="1">
+        <v>8.4476951139533605E-3</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.82477496516484905</v>
+      </c>
+      <c r="H98" s="1">
+        <v>77.409401165624601</v>
+      </c>
+      <c r="I98" s="1">
+        <v>88.500544372186297</v>
+      </c>
+      <c r="J98" s="1">
+        <v>3.4555866067815397E-2</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0.12435481206707399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.14326496347729001</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.157111556005949</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.367992037219181</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.400216279143085</v>
+      </c>
+      <c r="F99" s="1">
+        <v>8.4180442619020499E-3</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.81707606230926699</v>
+      </c>
+      <c r="H99" s="1">
+        <v>76.6193265416874</v>
+      </c>
+      <c r="I99" s="1">
+        <v>87.619939657121606</v>
+      </c>
+      <c r="J99" s="1">
+        <v>5.6738241817685199E-2</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0.23389655099431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.146380770518344</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.18088278210406</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.36487556354711997</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.39592168356000002</v>
+      </c>
+      <c r="F100" s="1">
+        <v>8.5076273870270495E-3</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.82875709968464295</v>
+      </c>
+      <c r="H100" s="1">
+        <v>75.267860355415607</v>
+      </c>
+      <c r="I100" s="1">
+        <v>84.374755890911402</v>
+      </c>
+      <c r="J100" s="1">
+        <v>6.6328285666366E-3</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.28072030123011898</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.150739421166937</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.16146243234883101</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.37059371810076502</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.40512488599962398</v>
+      </c>
+      <c r="F101" s="1">
+        <v>8.4506633212175306E-3</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.82495312306106094</v>
+      </c>
+      <c r="H101" s="1">
+        <v>72.360776414843599</v>
+      </c>
+      <c r="I101" s="1">
+        <v>78.5326842293548</v>
+      </c>
+      <c r="J101" s="1">
+        <v>-3.7061019311282299E-2</v>
+      </c>
+      <c r="K101" s="1">
+        <v>-0.20855071740337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.165595748017348</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.153887512255937</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.36006917823145901</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.40114068359738603</v>
+      </c>
+      <c r="F102" s="1">
+        <v>8.5560827036297304E-3</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.83329273506136003</v>
+      </c>
+      <c r="H102" s="1">
+        <v>69.125224565772498</v>
+      </c>
+      <c r="I102" s="1">
+        <v>72.541172458509806</v>
+      </c>
+      <c r="J102" s="1">
+        <v>-5.12238182502847E-2</v>
+      </c>
+      <c r="K102" s="1">
+        <v>-0.31104971607579301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.16864659782917399</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.14461747782513901</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.35201045155591798</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.39459219786425198</v>
+      </c>
+      <c r="F103" s="1">
+        <v>8.3310645455518303E-3</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.84067461971619695</v>
+      </c>
+      <c r="H103" s="1">
+        <v>67.534981845454396</v>
+      </c>
+      <c r="I103" s="1">
+        <v>66.234775897796197</v>
+      </c>
+      <c r="J103" s="1">
+        <v>-2.2532930293650201E-2</v>
+      </c>
+      <c r="K103" s="1">
+        <v>-0.22119839549842901</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.18021656746918999</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.112170397191867</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.30881543524487798</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0.35070269208639898</v>
+      </c>
+      <c r="F104" s="1">
+        <v>8.3122015444099598E-3</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.83743822617700203</v>
+      </c>
+      <c r="H104" s="1">
+        <v>64.774727939844794</v>
+      </c>
+      <c r="I104" s="1">
+        <v>60.186764482276303</v>
+      </c>
+      <c r="J104" s="1">
+        <v>-3.9991846427851599E-2</v>
+      </c>
+      <c r="K104" s="1">
+        <v>-0.18982134275269899</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.18154601875394599</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.140815911359809</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.40982164097106</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.45508740266011299</v>
+      </c>
+      <c r="F105" s="1">
+        <v>8.3965139734423003E-3</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.84903451125473794</v>
+      </c>
+      <c r="H105" s="1">
+        <v>63.140340331610098</v>
+      </c>
+      <c r="I105" s="1">
+        <v>55.136828132849097</v>
+      </c>
+      <c r="J105" s="1">
+        <v>-6.7757709047330097E-2</v>
+      </c>
+      <c r="K105" s="1">
+        <v>-0.68135710770476499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.17611471958387101</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.114650956461591</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.30530131783953302</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.34533294948102899</v>
+      </c>
+      <c r="F106" s="1">
+        <v>8.2769805132872007E-3</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.84610880101588903</v>
+      </c>
+      <c r="H106" s="1">
+        <v>62.165228423465102</v>
+      </c>
+      <c r="I106" s="1">
+        <v>50.4333242017183</v>
+      </c>
+      <c r="J106" s="1">
+        <v>-5.3291712642172098E-2</v>
+      </c>
+      <c r="K106" s="1">
+        <v>-0.39899218076008702</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.17473378052004199</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.13196227273351699</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.30627961891181499</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0.34464187985407502</v>
+      </c>
+      <c r="F107" s="1">
+        <v>8.1867233550128905E-3</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.83477894569480204</v>
+      </c>
+      <c r="H107" s="1">
+        <v>62.661515791523598</v>
+      </c>
+      <c r="I107" s="1">
+        <v>48.504753983014602</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-3.8560385751322999E-2</v>
+      </c>
+      <c r="K107" s="1">
+        <v>-0.36115280836279001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.17360785172859899</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.115149412094432</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.31707052204386799</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.357673898371134</v>
+      </c>
+      <c r="F108" s="1">
+        <v>8.3432132892385397E-3</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.84298974849886898</v>
+      </c>
+      <c r="H108" s="1">
+        <v>63.7729426086429</v>
+      </c>
+      <c r="I108" s="1">
+        <v>50.439314692414797</v>
+      </c>
+      <c r="J108" s="1">
+        <v>-2.5474611393587199E-2</v>
+      </c>
+      <c r="K108" s="1">
+        <v>-0.27221341908338398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.17162410452510399</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.118846709515656</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.29201910718465401</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0.33239882841442298</v>
+      </c>
+      <c r="F109" s="1">
+        <v>8.4119448014366802E-3</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.84786453944293705</v>
+      </c>
+      <c r="H109" s="1">
+        <v>62.504748149139402</v>
+      </c>
+      <c r="I109" s="1">
+        <v>52.897135941314801</v>
+      </c>
+      <c r="J109" s="1">
+        <v>-5.7123802286489299E-2</v>
+      </c>
+      <c r="K109" s="1">
+        <v>-0.18901544985989399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.17213787853319101</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.131635533689336</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.321185700939567</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0.36891093152078602</v>
+      </c>
+      <c r="F110" s="1">
+        <v>8.4575512982348507E-3</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.84458278751037197</v>
+      </c>
+      <c r="H110" s="1">
+        <v>64.140548340112801</v>
+      </c>
+      <c r="I110" s="1">
+        <v>56.057671373222497</v>
+      </c>
+      <c r="J110" s="1">
+        <v>-6.7092033331253798E-2</v>
+      </c>
+      <c r="K110" s="1">
+        <v>-0.44297800473633098</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.17214417799426199</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.116915317336539</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.30577373709808298</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0.35022829080828299</v>
+      </c>
+      <c r="F111" s="1">
+        <v>8.4869777011138594E-3</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.86098294050548196</v>
+      </c>
+      <c r="H111" s="1">
+        <v>63.468569741829803</v>
+      </c>
+      <c r="I111" s="1">
+        <v>58.537747613867801</v>
+      </c>
+      <c r="J111" s="1">
+        <v>-3.8087777154434697E-2</v>
+      </c>
+      <c r="K111" s="1">
+        <v>-0.27928881024150298</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.16780164113659399</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.123370269093559</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.296784248234083</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0.341226932400159</v>
+      </c>
+      <c r="F112" s="1">
+        <v>8.5296181390218506E-3</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.83768648698510995</v>
+      </c>
+      <c r="H112" s="1">
+        <v>63.879539162550401</v>
+      </c>
+      <c r="I112" s="1">
+        <v>59.522944128184498</v>
+      </c>
+      <c r="J112" s="1">
+        <v>-4.39661906081113E-2</v>
+      </c>
+      <c r="K112" s="1">
+        <v>-0.33523945728550297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.16690257079183601</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.11120754002828299</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.276236158496175</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0.31787817790409401</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1">
+        <v>0.79891776868180397</v>
+      </c>
+      <c r="H113" s="1">
+        <v>64.6906511394223</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>109.96460583587699</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="21">
+        <v>87.079046272618598</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>109.10333413125301</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="21">
+        <v>91.959779320323904</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>108.249780325497</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="21">
+        <v>95.0610298889532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>107.408351274357</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="21">
+        <v>96.064535301791807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1">
+        <v>98.124156771490902</v>
+      </c>
+      <c r="C6" s="1">
+        <v>109.84465465682</v>
+      </c>
+      <c r="D6" s="1">
+        <v>106.58814708656099</v>
+      </c>
+      <c r="E6" s="1">
+        <v>104.27989526018899</v>
+      </c>
+      <c r="F6" s="21">
+        <v>90.832129836667093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="1">
+        <v>97.832443430329903</v>
+      </c>
+      <c r="C7" s="1">
+        <v>108.222912211306</v>
+      </c>
+      <c r="D7" s="1">
+        <v>105.803540401777</v>
+      </c>
+      <c r="E7" s="1">
+        <v>103.059768220802</v>
+      </c>
+      <c r="F7" s="21">
+        <v>89.474443927499706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="1">
+        <v>97.566613484952001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>106.667338400715</v>
+      </c>
+      <c r="D8" s="1">
+        <v>105.061460440795</v>
+      </c>
+      <c r="E8" s="1">
+        <v>101.906539064245</v>
+      </c>
+      <c r="F8" s="21">
+        <v>91.617344563793694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="1">
+        <v>97.335606408734193</v>
+      </c>
+      <c r="C9" s="1">
+        <v>105.192264957916</v>
+      </c>
+      <c r="D9" s="1">
+        <v>104.372672255335</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100.840546835404</v>
+      </c>
+      <c r="F9" s="21">
+        <v>92.596513746043399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="1">
+        <v>97.154101359489601</v>
+      </c>
+      <c r="C10" s="1">
+        <v>103.81789049207499</v>
+      </c>
+      <c r="D10" s="1">
+        <v>103.753985774258</v>
+      </c>
+      <c r="E10" s="1">
+        <v>99.885316357177004</v>
+      </c>
+      <c r="F10" s="21">
+        <v>91.067507590792005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1">
+        <v>97.037804436440496</v>
+      </c>
+      <c r="C11" s="1">
+        <v>102.565011584662</v>
+      </c>
+      <c r="D11" s="1">
+        <v>103.225727435964</v>
+      </c>
+      <c r="E11" s="1">
+        <v>99.059388167159796</v>
+      </c>
+      <c r="F11" s="21">
+        <v>92.600927199682005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="1">
+        <v>97.001343405042206</v>
+      </c>
+      <c r="C12" s="1">
+        <v>101.455526782555</v>
+      </c>
+      <c r="D12" s="1">
+        <v>102.807609383365</v>
+      </c>
+      <c r="E12" s="1">
+        <v>98.371949005108902</v>
+      </c>
+      <c r="F12" s="21">
+        <v>96.875240165116097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="1">
+        <v>97.048729377170204</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100.50086572642</v>
+      </c>
+      <c r="D13" s="1">
+        <v>102.505385342731</v>
+      </c>
+      <c r="E13" s="1">
+        <v>97.820887275787797</v>
+      </c>
+      <c r="F13" s="21">
+        <v>94.446059535071299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="1">
+        <v>97.176488017633503</v>
+      </c>
+      <c r="C14" s="1">
+        <v>99.705044175523497</v>
+      </c>
+      <c r="D14" s="1">
+        <v>102.315429187418</v>
+      </c>
+      <c r="E14" s="1">
+        <v>97.398917505145604</v>
+      </c>
+      <c r="F14" s="21">
+        <v>93.562026104469993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1">
+        <v>97.369106361625597</v>
+      </c>
+      <c r="C15" s="1">
+        <v>99.054936986875305</v>
+      </c>
+      <c r="D15" s="1">
+        <v>102.217206284025</v>
+      </c>
+      <c r="E15" s="1">
+        <v>97.094832501517203</v>
+      </c>
+      <c r="F15" s="21">
+        <v>96.494834440545404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="1">
+        <v>97.601887319434098</v>
+      </c>
+      <c r="C16" s="1">
+        <v>98.527271541062902</v>
+      </c>
+      <c r="D16" s="1">
+        <v>102.178705352756</v>
+      </c>
+      <c r="E16" s="1">
+        <v>96.891089290449798</v>
+      </c>
+      <c r="F16" s="21">
+        <v>95.446658055409003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="1">
+        <v>97.843373181566605</v>
+      </c>
+      <c r="C17" s="1">
+        <v>98.0923432586453</v>
+      </c>
+      <c r="D17" s="1">
+        <v>102.15927269483301</v>
+      </c>
+      <c r="E17" s="1">
+        <v>96.764506606393596</v>
+      </c>
+      <c r="F17" s="21">
+        <v>96.003121988637801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="1">
+        <v>98.0691086263502</v>
+      </c>
+      <c r="C18" s="1">
+        <v>97.727979672017696</v>
+      </c>
+      <c r="D18" s="1">
+        <v>102.12791331497699</v>
+      </c>
+      <c r="E18" s="1">
+        <v>96.691128128980694</v>
+      </c>
+      <c r="F18" s="21">
+        <v>98.181532062398105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="1">
+        <v>98.252802051010505</v>
+      </c>
+      <c r="C19" s="1">
+        <v>97.415423620589294</v>
+      </c>
+      <c r="D19" s="1">
+        <v>102.053369849189</v>
+      </c>
+      <c r="E19" s="1">
+        <v>96.645465004380796</v>
+      </c>
+      <c r="F19" s="21">
+        <v>102.36389011604599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1">
+        <v>98.378870256419503</v>
+      </c>
+      <c r="C20" s="1">
+        <v>97.140291762207099</v>
+      </c>
+      <c r="D20" s="1">
+        <v>101.91685833833699</v>
+      </c>
+      <c r="E20" s="1">
+        <v>96.606314144769698</v>
+      </c>
+      <c r="F20" s="21">
+        <v>104.379499098921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="1">
+        <v>98.438632756782695</v>
+      </c>
+      <c r="C21" s="1">
+        <v>96.889285772045696</v>
+      </c>
+      <c r="D21" s="1">
+        <v>101.709327365181</v>
+      </c>
+      <c r="E21" s="1">
+        <v>96.557133237008301</v>
+      </c>
+      <c r="F21" s="21">
+        <v>104.94514912952501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="1">
+        <v>98.428619026142499</v>
+      </c>
+      <c r="C22" s="1">
+        <v>96.651065533917603</v>
+      </c>
+      <c r="D22" s="1">
+        <v>101.42474427098701</v>
+      </c>
+      <c r="E22" s="1">
+        <v>96.483773314870106</v>
+      </c>
+      <c r="F22" s="21">
+        <v>105.729975071621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="1">
+        <v>98.348332763037803</v>
+      </c>
+      <c r="C23" s="1">
+        <v>96.416701375947795</v>
+      </c>
+      <c r="D23" s="1">
+        <v>101.06047860980701</v>
+      </c>
+      <c r="E23" s="1">
+        <v>96.3749597464831</v>
+      </c>
+      <c r="F23" s="21">
+        <v>107.488538716422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="1">
+        <v>98.199220924604901</v>
+      </c>
+      <c r="C24" s="1">
+        <v>96.182057523122594</v>
+      </c>
+      <c r="D24" s="1">
+        <v>100.61893920701399</v>
+      </c>
+      <c r="E24" s="1">
+        <v>96.223534079732602</v>
+      </c>
+      <c r="F24" s="21">
+        <v>106.36280485589801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="1">
+        <v>97.984870833645999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>95.945196115664004</v>
+      </c>
+      <c r="D25" s="1">
+        <v>100.10748212569899</v>
+      </c>
+      <c r="E25" s="1">
+        <v>96.024406451602999</v>
+      </c>
+      <c r="F25" s="21">
+        <v>102.634520814642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="1">
+        <v>97.712249975592599</v>
+      </c>
+      <c r="C26" s="1">
+        <v>95.705566929925297</v>
+      </c>
+      <c r="D26" s="1">
+        <v>99.536214037078395</v>
+      </c>
+      <c r="E26" s="1">
+        <v>95.7849670011461</v>
+      </c>
+      <c r="F26" s="21">
+        <v>98.978990916037205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="1">
+        <v>97.394289988539597</v>
+      </c>
+      <c r="C27" s="1">
+        <v>95.465029151966704</v>
+      </c>
+      <c r="D27" s="1">
+        <v>98.921347208873001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>95.510719616369499</v>
+      </c>
+      <c r="F27" s="21">
+        <v>99.740139542426405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="1">
+        <v>97.047147155501605</v>
+      </c>
+      <c r="C28" s="1">
+        <v>95.229564543584203</v>
+      </c>
+      <c r="D28" s="1">
+        <v>98.282369906402494</v>
+      </c>
+      <c r="E28" s="1">
+        <v>95.209977278374694</v>
+      </c>
+      <c r="F28" s="21">
+        <v>99.508252985099801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="1">
+        <v>96.689161066207504</v>
+      </c>
+      <c r="C29" s="1">
+        <v>95.009936886036101</v>
+      </c>
+      <c r="D29" s="1">
+        <v>97.642240818940195</v>
+      </c>
+      <c r="E29" s="1">
+        <v>94.893397081499899</v>
+      </c>
+      <c r="F29" s="21">
+        <v>100.15907902971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="1">
+        <v>96.340459013594497</v>
+      </c>
+      <c r="C30" s="1">
+        <v>94.817356401715102</v>
+      </c>
+      <c r="D30" s="1">
+        <v>97.025248760058304</v>
+      </c>
+      <c r="E30" s="1">
+        <v>94.575252465747496</v>
+      </c>
+      <c r="F30" s="21">
+        <v>98.828271843991502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="1">
+        <v>96.017420448969105</v>
+      </c>
+      <c r="C31" s="1">
+        <v>94.660036774078193</v>
+      </c>
+      <c r="D31" s="1">
+        <v>96.452651714464494</v>
+      </c>
+      <c r="E31" s="1">
+        <v>94.267495929937098</v>
+      </c>
+      <c r="F31" s="21">
+        <v>98.197660331525398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="1">
+        <v>95.727471238741501</v>
+      </c>
+      <c r="C32" s="1">
+        <v>94.540365490624794</v>
+      </c>
+      <c r="D32" s="1">
+        <v>95.935310176082197</v>
+      </c>
+      <c r="E32" s="1">
+        <v>93.981313122165304</v>
+      </c>
+      <c r="F32" s="21">
+        <v>96.548460784556696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="1">
+        <v>95.478978791282998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>94.462173902936897</v>
+      </c>
+      <c r="D33" s="1">
+        <v>95.483627764249803</v>
+      </c>
+      <c r="E33" s="1">
+        <v>93.732046158151704</v>
+      </c>
+      <c r="F33" s="21">
+        <v>96.408009613283497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="1">
+        <v>95.283072686446403</v>
+      </c>
+      <c r="C34" s="1">
+        <v>94.433452904990205</v>
+      </c>
+      <c r="D34" s="1">
+        <v>95.111243029751606</v>
+      </c>
+      <c r="E34" s="1">
+        <v>93.534271395824604</v>
+      </c>
+      <c r="F34" s="21">
+        <v>92.795394001455605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="1">
+        <v>95.145512297119495</v>
+      </c>
+      <c r="C35" s="1">
+        <v>94.454988890700704</v>
+      </c>
+      <c r="D35" s="1">
+        <v>94.825805457558204</v>
+      </c>
+      <c r="E35" s="1">
+        <v>93.397373088081906</v>
+      </c>
+      <c r="F35" s="21">
+        <v>93.336783211430003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="1">
+        <v>95.066948601804299</v>
+      </c>
+      <c r="C36" s="1">
+        <v>94.524589196569096</v>
+      </c>
+      <c r="D36" s="1">
+        <v>94.629065737816205</v>
+      </c>
+      <c r="E36" s="1">
+        <v>93.324785505130194</v>
+      </c>
+      <c r="F36" s="21">
+        <v>93.099604439854502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="1">
+        <v>95.044062024362205</v>
+      </c>
+      <c r="C37" s="1">
+        <v>94.637628432469896</v>
+      </c>
+      <c r="D37" s="1">
+        <v>94.518607296386804</v>
+      </c>
+      <c r="E37" s="1">
+        <v>93.313351260527298</v>
+      </c>
+      <c r="F37" s="21">
+        <v>95.735307573407596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="1">
+        <v>95.072284000293294</v>
+      </c>
+      <c r="C38" s="1">
+        <v>94.789895373330694</v>
+      </c>
+      <c r="D38" s="1">
+        <v>94.489707715423094</v>
+      </c>
+      <c r="E38" s="1">
+        <v>93.360328325793802</v>
+      </c>
+      <c r="F38" s="21">
+        <v>93.238445761869301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="1">
+        <v>95.148134215423795</v>
+      </c>
+      <c r="C39" s="1">
+        <v>94.974563085235403</v>
+      </c>
+      <c r="D39" s="1">
+        <v>94.538777746427797</v>
+      </c>
+      <c r="E39" s="1">
+        <v>93.460864556701793</v>
+      </c>
+      <c r="F39" s="21">
+        <v>94.678539181455704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="1">
+        <v>95.263656857785193</v>
+      </c>
+      <c r="C40" s="1">
+        <v>95.181725477636306</v>
+      </c>
+      <c r="D40" s="1">
+        <v>94.657759403823206</v>
+      </c>
+      <c r="E40" s="1">
+        <v>93.602120513755395</v>
+      </c>
+      <c r="F40" s="21">
+        <v>94.316571692230596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="1">
+        <v>95.415085327947807</v>
+      </c>
+      <c r="C41" s="1">
+        <v>95.403757506320005</v>
+      </c>
+      <c r="D41" s="1">
+        <v>94.841085180291699</v>
+      </c>
+      <c r="E41" s="1">
+        <v>93.774308507507101</v>
+      </c>
+      <c r="F41" s="21">
+        <v>94.338163241524697</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="1">
+        <v>95.603694987327899</v>
+      </c>
+      <c r="C42" s="1">
+        <v>95.638824633964106</v>
+      </c>
+      <c r="D42" s="1">
+        <v>95.088650860102803</v>
+      </c>
+      <c r="E42" s="1">
+        <v>93.973973369260804</v>
+      </c>
+      <c r="F42" s="21">
+        <v>95.422286854956596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="1">
+        <v>95.829577601003194</v>
+      </c>
+      <c r="C43" s="1">
+        <v>95.882623957877598</v>
+      </c>
+      <c r="D43" s="1">
+        <v>95.397027353869603</v>
+      </c>
+      <c r="E43" s="1">
+        <v>94.199943534384204</v>
+      </c>
+      <c r="F43" s="21">
+        <v>95.481674693755494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="1">
+        <v>96.087830725850395</v>
+      </c>
+      <c r="C44" s="1">
+        <v>96.130849890251397</v>
+      </c>
+      <c r="D44" s="1">
+        <v>95.759288430615101</v>
+      </c>
+      <c r="E44" s="1">
+        <v>94.447809576721994</v>
+      </c>
+      <c r="F44" s="21">
+        <v>94.714612480664698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="1">
+        <v>96.373739120676603</v>
+      </c>
+      <c r="C45" s="1">
+        <v>96.382106398900703</v>
+      </c>
+      <c r="D45" s="1">
+        <v>96.169699086764894</v>
+      </c>
+      <c r="E45" s="1">
+        <v>94.716341120155704</v>
+      </c>
+      <c r="F45" s="21">
+        <v>94.477194538925403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="1">
+        <v>96.686730713875406</v>
+      </c>
+      <c r="C46" s="1">
+        <v>96.641894146758304</v>
+      </c>
+      <c r="D46" s="1">
+        <v>96.626635939290296</v>
+      </c>
+      <c r="E46" s="1">
+        <v>95.007601287207294</v>
+      </c>
+      <c r="F46" s="21">
+        <v>96.7998445779956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="1">
+        <v>97.029448664642999</v>
+      </c>
+      <c r="C47" s="1">
+        <v>96.919714563066506</v>
+      </c>
+      <c r="D47" s="1">
+        <v>97.130798072979701</v>
+      </c>
+      <c r="E47" s="1">
+        <v>95.328617535308197</v>
+      </c>
+      <c r="F47" s="21">
+        <v>95.987338032156302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="1">
+        <v>97.403980675161705</v>
+      </c>
+      <c r="C48" s="1">
+        <v>97.225829883961197</v>
+      </c>
+      <c r="D48" s="1">
+        <v>97.681322548654805</v>
+      </c>
+      <c r="E48" s="1">
+        <v>95.688511951105099</v>
+      </c>
+      <c r="F48" s="21">
+        <v>95.995026927580497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="1">
+        <v>97.811334385330099</v>
+      </c>
+      <c r="C49" s="1">
+        <v>97.570891997413796</v>
+      </c>
+      <c r="D49" s="1">
+        <v>98.2747882321585</v>
+      </c>
+      <c r="E49" s="1">
+        <v>96.094524777309303</v>
+      </c>
+      <c r="F49" s="21">
+        <v>98.346030980009004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="1">
+        <v>98.257882938248898</v>
+      </c>
+      <c r="C50" s="1">
+        <v>97.971024358545506</v>
+      </c>
+      <c r="D50" s="1">
+        <v>98.912520794975194</v>
+      </c>
+      <c r="E50" s="1">
+        <v>96.556217319045402</v>
+      </c>
+      <c r="F50" s="21">
+        <v>93.892525661748607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="1">
+        <v>98.747116593419705</v>
+      </c>
+      <c r="C51" s="1">
+        <v>98.435612757449903</v>
+      </c>
+      <c r="D51" s="1">
+        <v>99.590760389605805</v>
+      </c>
+      <c r="E51" s="1">
+        <v>97.082327547933701</v>
+      </c>
+      <c r="F51" s="21">
+        <v>92.297436918888295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="1">
+        <v>99.281047866789606</v>
+      </c>
+      <c r="C52" s="1">
+        <v>98.969963687389097</v>
+      </c>
+      <c r="D52" s="1">
+        <v>100.30533594822199</v>
+      </c>
+      <c r="E52" s="1">
+        <v>97.680469964488395</v>
+      </c>
+      <c r="F52" s="21">
+        <v>89.047828611934804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="1">
+        <v>99.855921864824694</v>
+      </c>
+      <c r="C53" s="1">
+        <v>99.572857112220106</v>
+      </c>
+      <c r="D53" s="1">
+        <v>101.04544763374599</v>
+      </c>
+      <c r="E53" s="1">
+        <v>98.353715121918995</v>
+      </c>
+      <c r="F53" s="21">
+        <v>89.100638297664204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="1">
+        <v>100.462848015809</v>
+      </c>
+      <c r="C54" s="1">
+        <v>100.232145219336</v>
+      </c>
+      <c r="D54" s="1">
+        <v>101.794040655598</v>
+      </c>
+      <c r="E54" s="1">
+        <v>99.099676555731804</v>
+      </c>
+      <c r="F54" s="21">
+        <v>94.098289435740398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="1">
+        <v>101.09164331413</v>
+      </c>
+      <c r="C55" s="1">
+        <v>100.93589569193</v>
+      </c>
+      <c r="D55" s="1">
+        <v>102.533049018686</v>
+      </c>
+      <c r="E55" s="1">
+        <v>99.912438524584005</v>
+      </c>
+      <c r="F55" s="21">
+        <v>100.73972532960801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="1">
+        <v>101.73402380024901</v>
+      </c>
+      <c r="C56" s="1">
+        <v>101.679031944475</v>
+      </c>
+      <c r="D56" s="1">
+        <v>103.248188975757</v>
+      </c>
+      <c r="E56" s="1">
+        <v>100.78361784049299</v>
+      </c>
+      <c r="F56" s="21">
+        <v>101.211290477717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" s="1">
+        <v>102.382347503437</v>
+      </c>
+      <c r="C57" s="1">
+        <v>102.458724592648</v>
+      </c>
+      <c r="D57" s="1">
+        <v>103.92731535978101</v>
+      </c>
+      <c r="E57" s="1">
+        <v>101.70469426801699</v>
+      </c>
+      <c r="F57" s="21">
+        <v>103.413001500104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="1">
+        <v>103.033096896882</v>
+      </c>
+      <c r="C58" s="1">
+        <v>103.278758904189</v>
+      </c>
+      <c r="D58" s="1">
+        <v>104.56393936069701</v>
+      </c>
+      <c r="E58" s="1">
+        <v>102.669820879163</v>
+      </c>
+      <c r="F58" s="21">
+        <v>105.225221267495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="1">
+        <v>103.68535185911399</v>
+      </c>
+      <c r="C59" s="1">
+        <v>104.137496096635</v>
+      </c>
+      <c r="D59" s="1">
+        <v>105.15568475136099</v>
+      </c>
+      <c r="E59" s="1">
+        <v>103.67518977001301</v>
+      </c>
+      <c r="F59" s="21">
+        <v>104.87077435634301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="1">
+        <v>104.332205907816</v>
+      </c>
+      <c r="C60" s="1">
+        <v>105.025617123776</v>
+      </c>
+      <c r="D60" s="1">
+        <v>105.693617215724</v>
+      </c>
+      <c r="E60" s="1">
+        <v>104.71033615605199</v>
+      </c>
+      <c r="F60" s="21">
+        <v>105.836377691541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="1">
+        <v>104.96403438997</v>
+      </c>
+      <c r="C61" s="1">
+        <v>105.9282001341</v>
+      </c>
+      <c r="D61" s="1">
+        <v>106.165610420492</v>
+      </c>
+      <c r="E61" s="1">
+        <v>105.75997419205</v>
+      </c>
+      <c r="F61" s="21">
+        <v>109.64136256722399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="1">
+        <v>105.56763278232</v>
+      </c>
+      <c r="C62" s="1">
+        <v>106.82467459003399</v>
+      </c>
+      <c r="D62" s="1">
+        <v>106.554668130176</v>
+      </c>
+      <c r="E62" s="1">
+        <v>106.806531540609</v>
+      </c>
+      <c r="F62" s="21">
+        <v>111.243626765586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="1">
+        <v>106.128350619613</v>
+      </c>
+      <c r="C63" s="1">
+        <v>107.69046356694901</v>
+      </c>
+      <c r="D63" s="1">
+        <v>106.847719085172</v>
+      </c>
+      <c r="E63" s="1">
+        <v>107.827928480989</v>
+      </c>
+      <c r="F63" s="21">
+        <v>112.662107582768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="1">
+        <v>106.63028527365201</v>
+      </c>
+      <c r="C64" s="1">
+        <v>108.495143812525</v>
+      </c>
+      <c r="D64" s="1">
+        <v>107.033007991556</v>
+      </c>
+      <c r="E64" s="1">
+        <v>108.796619945068</v>
+      </c>
+      <c r="F64" s="21">
+        <v>113.09846341817401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="1">
+        <v>107.05635137128399</v>
+      </c>
+      <c r="C65" s="1">
+        <v>109.20459379299299</v>
+      </c>
+      <c r="D65" s="1">
+        <v>107.100836782104</v>
+      </c>
+      <c r="E65" s="1">
+        <v>109.679400472113</v>
+      </c>
+      <c r="F65" s="21">
+        <v>112.570864959525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="1">
+        <v>107.388616068514</v>
+      </c>
+      <c r="C66" s="1">
+        <v>109.78187512589599</v>
+      </c>
+      <c r="D66" s="1">
+        <v>107.042373236877</v>
+      </c>
+      <c r="E66" s="1">
+        <v>110.43828950448901</v>
+      </c>
+      <c r="F66" s="21">
+        <v>113.070947867153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="1">
+        <v>107.607168729127</v>
+      </c>
+      <c r="C67" s="1">
+        <v>110.17865531187201</v>
+      </c>
+      <c r="D67" s="1">
+        <v>106.847085498781</v>
+      </c>
+      <c r="E67" s="1">
+        <v>111.03362102123199</v>
+      </c>
+      <c r="F67" s="21">
+        <v>114.22068997161399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="1">
+        <v>107.69429510450099</v>
+      </c>
+      <c r="C68" s="1">
+        <v>110.352515823947</v>
+      </c>
+      <c r="D68" s="1">
+        <v>106.50783026247299</v>
+      </c>
+      <c r="E68" s="1">
+        <v>111.432376322938</v>
+      </c>
+      <c r="F68" s="21">
+        <v>113.364454521426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="1">
+        <v>107.636130412323</v>
+      </c>
+      <c r="C69" s="1">
+        <v>110.271025624657</v>
+      </c>
+      <c r="D69" s="1">
+        <v>106.022774590309</v>
+      </c>
+      <c r="E69" s="1">
+        <v>111.606253074603</v>
+      </c>
+      <c r="F69" s="21">
+        <v>113.241021552505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="1">
+        <v>107.432564063131</v>
+      </c>
+      <c r="C70" s="1">
+        <v>109.94166314856299</v>
+      </c>
+      <c r="D70" s="1">
+        <v>105.40111458079799</v>
+      </c>
+      <c r="E70" s="1">
+        <v>111.545289571151</v>
+      </c>
+      <c r="F70" s="21">
+        <v>111.07438211556099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="1">
+        <v>107.085403044258</v>
+      </c>
+      <c r="C71" s="1">
+        <v>109.36940899225699</v>
+      </c>
+      <c r="D71" s="1">
+        <v>104.652163356763</v>
+      </c>
+      <c r="E71" s="1">
+        <v>111.24880897473901</v>
+      </c>
+      <c r="F71" s="21">
+        <v>113.298267280396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="1">
+        <v>106.59275088055701</v>
+      </c>
+      <c r="C72" s="1">
+        <v>108.589333014638</v>
+      </c>
+      <c r="D72" s="1">
+        <v>103.782029854059</v>
+      </c>
+      <c r="E72" s="1">
+        <v>110.720617108787</v>
+      </c>
+      <c r="F72" s="21">
+        <v>109.063851044489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="1">
+        <v>105.949492119683</v>
+      </c>
+      <c r="C73" s="1">
+        <v>107.629723149917</v>
+      </c>
+      <c r="D73" s="1">
+        <v>102.79453818016501</v>
+      </c>
+      <c r="E73" s="1">
+        <v>109.966223564736</v>
+      </c>
+      <c r="F73" s="21">
+        <v>109.026818405142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="1">
+        <v>105.15564428500601</v>
+      </c>
+      <c r="C74" s="1">
+        <v>106.52243009144399</v>
+      </c>
+      <c r="D74" s="1">
+        <v>101.69836760582101</v>
+      </c>
+      <c r="E74" s="1">
+        <v>109.00194283050899</v>
+      </c>
+      <c r="F74" s="21">
+        <v>107.09832244832199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="1">
+        <v>104.21764592691</v>
+      </c>
+      <c r="C75" s="1">
+        <v>105.29318324309401</v>
+      </c>
+      <c r="D75" s="1">
+        <v>100.507874532149</v>
+      </c>
+      <c r="E75" s="1">
+        <v>107.85273038656899</v>
+      </c>
+      <c r="F75" s="21">
+        <v>103.046201900303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="1">
+        <v>103.15468078046899</v>
+      </c>
+      <c r="C76" s="1">
+        <v>103.974225051383</v>
+      </c>
+      <c r="D76" s="1">
+        <v>99.2473909861816</v>
+      </c>
+      <c r="E76" s="1">
+        <v>106.55823448339</v>
+      </c>
+      <c r="F76" s="21">
+        <v>96.829391932471395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" s="1">
+        <v>101.994501361616</v>
+      </c>
+      <c r="C77" s="1">
+        <v>102.60515561700601</v>
+      </c>
+      <c r="D77" s="1">
+        <v>97.946424920531001</v>
+      </c>
+      <c r="E77" s="1">
+        <v>105.163278425106</v>
+      </c>
+      <c r="F77" s="21">
+        <v>85.206092303684699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="1">
+        <v>100.774030993623</v>
+      </c>
+      <c r="C78" s="1">
+        <v>101.224745800915</v>
+      </c>
+      <c r="D78" s="1">
+        <v>96.636249660518104</v>
+      </c>
+      <c r="E78" s="1">
+        <v>103.719472412798</v>
+      </c>
+      <c r="F78" s="21">
+        <v>83.487673694890802</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="1">
+        <v>99.528009966627096</v>
+      </c>
+      <c r="C79" s="1">
+        <v>99.866644900633602</v>
+      </c>
+      <c r="D79" s="1">
+        <v>95.343828980847604</v>
+      </c>
+      <c r="E79" s="1">
+        <v>102.258739789714</v>
+      </c>
+      <c r="F79" s="21">
+        <v>88.048711450646707</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="1">
+        <v>98.279259057172297</v>
+      </c>
+      <c r="C80" s="1">
+        <v>98.551401812479696</v>
+      </c>
+      <c r="D80" s="1">
+        <v>94.080796342359605</v>
+      </c>
+      <c r="E80" s="1">
+        <v>100.794248724616</v>
+      </c>
+      <c r="F80" s="21">
+        <v>91.251305726625205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="1">
+        <v>97.045323958430998</v>
+      </c>
+      <c r="C81" s="1">
+        <v>97.293988443284505</v>
+      </c>
+      <c r="D81" s="1">
+        <v>92.852137124409396</v>
+      </c>
+      <c r="E81" s="1">
+        <v>99.347815940519993</v>
+      </c>
+      <c r="F81" s="21">
+        <v>94.020490586685796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="1">
+        <v>95.839143703374504</v>
+      </c>
+      <c r="C82" s="1">
+        <v>96.099042123983395</v>
+      </c>
+      <c r="D82" s="1">
+        <v>91.658242146776502</v>
+      </c>
+      <c r="E82" s="1">
+        <v>97.924803545728594</v>
+      </c>
+      <c r="F82" s="21">
+        <v>93.001189477928506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="1">
+        <v>94.662250669352304</v>
+      </c>
+      <c r="C83" s="1">
+        <v>94.961836963059199</v>
+      </c>
+      <c r="D83" s="1">
+        <v>90.491170973227895</v>
+      </c>
+      <c r="E83" s="1">
+        <v>96.529173815523805</v>
+      </c>
+      <c r="F83" s="21">
+        <v>92.792585167036194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="1">
+        <v>93.509259335419102</v>
+      </c>
+      <c r="C84" s="1">
+        <v>93.863579812588696</v>
+      </c>
+      <c r="D84" s="1">
+        <v>89.337395456688597</v>
+      </c>
+      <c r="E84" s="1">
+        <v>95.1540122297598</v>
+      </c>
+      <c r="F84" s="21">
+        <v>93.575677840260298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" s="1">
+        <v>92.371521390996094</v>
+      </c>
+      <c r="C85" s="1">
+        <v>92.779574314558602</v>
+      </c>
+      <c r="D85" s="1">
+        <v>88.181434732065199</v>
+      </c>
+      <c r="E85" s="1">
+        <v>93.795570625937302</v>
+      </c>
+      <c r="F85" s="21">
+        <v>92.969952726265205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="1">
+        <v>91.249675465839402</v>
+      </c>
+      <c r="C86" s="1">
+        <v>91.695998600159996</v>
+      </c>
+      <c r="D86" s="1">
+        <v>87.021936234371296</v>
+      </c>
+      <c r="E86" s="1">
+        <v>92.450371219943904</v>
+      </c>
+      <c r="F86" s="21">
+        <v>89.798967086779101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" s="1">
+        <v>90.143432025241793</v>
+      </c>
+      <c r="C87" s="1">
+        <v>90.5999871007417</v>
+      </c>
+      <c r="D87" s="1">
+        <v>85.861575561800905</v>
+      </c>
+      <c r="E87" s="1">
+        <v>91.117124575360506</v>
+      </c>
+      <c r="F87" s="21">
+        <v>91.128588715357097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="1">
+        <v>89.053166628743995</v>
+      </c>
+      <c r="C88" s="1">
+        <v>89.483913319206493</v>
+      </c>
+      <c r="D88" s="1">
+        <v>84.706871460436901</v>
+      </c>
+      <c r="E88" s="1">
+        <v>89.795932758396106</v>
+      </c>
+      <c r="F88" s="21">
+        <v>90.633025377597306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="1">
+        <v>87.978187284795396</v>
+      </c>
+      <c r="C89" s="1">
+        <v>88.341618236700796</v>
+      </c>
+      <c r="D89" s="1">
+        <v>83.563684097248299</v>
+      </c>
+      <c r="E89" s="1">
+        <v>88.486094147945195</v>
+      </c>
+      <c r="F89" s="21">
+        <v>87.646006581343499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="1">
+        <v>86.904415202766998</v>
+      </c>
+      <c r="C90" s="1">
+        <v>87.153285395483394</v>
+      </c>
+      <c r="D90" s="1">
+        <v>82.424151723161302</v>
+      </c>
+      <c r="E90" s="1">
+        <v>87.179934603745593</v>
+      </c>
+      <c r="F90" s="21">
+        <v>87.794303903819397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>233</v>
+      </c>
+      <c r="B91" s="1">
+        <v>85.798278152192594</v>
+      </c>
+      <c r="C91" s="1">
+        <v>85.895510137675004</v>
+      </c>
+      <c r="D91" s="1">
+        <v>81.262315933528697</v>
+      </c>
+      <c r="E91" s="1">
+        <v>85.851390305917803</v>
+      </c>
+      <c r="F91" s="21">
+        <v>85.933926283496206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" s="1">
+        <v>84.620907384952105</v>
+      </c>
+      <c r="C92" s="1">
+        <v>84.550764168804307</v>
+      </c>
+      <c r="D92" s="1">
+        <v>80.050579346118496</v>
+      </c>
+      <c r="E92" s="1">
+        <v>84.471545663566701</v>
+      </c>
+      <c r="F92" s="21">
+        <v>85.149722862127803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" s="1">
+        <v>83.350067539908295</v>
+      </c>
+      <c r="C93" s="1">
+        <v>83.113495176526101</v>
+      </c>
+      <c r="D93" s="1">
+        <v>78.777374289800306</v>
+      </c>
+      <c r="E93" s="1">
+        <v>83.025553825951505</v>
+      </c>
+      <c r="F93" s="21">
+        <v>84.938381669832495</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>236</v>
+      </c>
+      <c r="B94" s="1">
+        <v>81.986456269215395</v>
+      </c>
+      <c r="C94" s="1">
+        <v>81.599548068743502</v>
+      </c>
+      <c r="D94" s="1">
+        <v>77.451298891651504</v>
+      </c>
+      <c r="E94" s="1">
+        <v>81.516803365437198</v>
+      </c>
+      <c r="F94" s="21">
+        <v>83.858077720600306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" s="1">
+        <v>80.544397207824503</v>
+      </c>
+      <c r="C95" s="1">
+        <v>80.032527927438196</v>
+      </c>
+      <c r="D95" s="1">
+        <v>76.091719267330006</v>
+      </c>
+      <c r="E95" s="1">
+        <v>79.958710903404096</v>
+      </c>
+      <c r="F95" s="21">
+        <v>82.047451785363606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" s="1">
+        <v>79.050361729570199</v>
+      </c>
+      <c r="C96" s="1">
+        <v>78.439515128365798</v>
+      </c>
+      <c r="D96" s="1">
+        <v>74.726514543731696</v>
+      </c>
+      <c r="E96" s="1">
+        <v>78.380487321471705</v>
+      </c>
+      <c r="F96" s="21">
+        <v>79.038820826429799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="1">
+        <v>77.532717087599195</v>
+      </c>
+      <c r="C97" s="1">
+        <v>76.846232869833401</v>
+      </c>
+      <c r="D97" s="1">
+        <v>73.383807210707502</v>
+      </c>
+      <c r="E97" s="1">
+        <v>76.807904212554206</v>
+      </c>
+      <c r="F97" s="21">
+        <v>78.015897574693</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="1">
+        <v>76.022569864668895</v>
+      </c>
+      <c r="C98" s="1">
+        <v>75.276823444182497</v>
+      </c>
+      <c r="D98" s="1">
+        <v>72.092202131638103</v>
+      </c>
+      <c r="E98" s="1">
+        <v>75.268870352718295</v>
+      </c>
+      <c r="F98" s="21">
+        <v>76.487310428146003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" s="1">
+        <v>74.538435290760205</v>
+      </c>
+      <c r="C99" s="1">
+        <v>73.743181229174297</v>
+      </c>
+      <c r="D99" s="1">
+        <v>70.868588445165798</v>
+      </c>
+      <c r="E99" s="1">
+        <v>73.782663712459694</v>
+      </c>
+      <c r="F99" s="21">
+        <v>77.275345696201299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>242</v>
+      </c>
+      <c r="B100" s="1">
+        <v>73.099723779616795</v>
+      </c>
+      <c r="C100" s="1">
+        <v>72.2561508695144</v>
+      </c>
+      <c r="D100" s="1">
+        <v>69.728256978444406</v>
+      </c>
+      <c r="E100" s="1">
+        <v>72.368033423511307</v>
+      </c>
+      <c r="F100" s="21">
+        <v>75.548452258547499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" s="1">
+        <v>71.734595908069494</v>
+      </c>
+      <c r="C101" s="1">
+        <v>70.830229794323998</v>
+      </c>
+      <c r="D101" s="1">
+        <v>68.692000257861693</v>
+      </c>
+      <c r="E101" s="1">
+        <v>71.049969047203405</v>
+      </c>
+      <c r="F101" s="21">
+        <v>72.333881383107197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" s="1">
+        <v>70.463725753696707</v>
+      </c>
+      <c r="C102" s="1">
+        <v>69.482750740949598</v>
+      </c>
+      <c r="D102" s="1">
+        <v>67.771650959415794</v>
+      </c>
+      <c r="E102" s="1">
+        <v>69.848808603064995</v>
+      </c>
+      <c r="F102" s="21">
+        <v>68.225981120163297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="1">
+        <v>69.293181999899204</v>
+      </c>
+      <c r="C103" s="1">
+        <v>68.222145972550507</v>
+      </c>
+      <c r="D103" s="1">
+        <v>66.965589560353905</v>
+      </c>
+      <c r="E103" s="1">
+        <v>68.770979590455795</v>
+      </c>
+      <c r="F103" s="21">
+        <v>68.1984737538654</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" s="1">
+        <v>68.214952955508707</v>
+      </c>
+      <c r="C104" s="1">
+        <v>67.047883977930198</v>
+      </c>
+      <c r="D104" s="1">
+        <v>66.259348675942206</v>
+      </c>
+      <c r="E104" s="1">
+        <v>67.809990158677707</v>
+      </c>
+      <c r="F104" s="21">
+        <v>65.047058135915094</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" s="1">
+        <v>67.219379850347096</v>
+      </c>
+      <c r="C105" s="1">
+        <v>65.956236601282598</v>
+      </c>
+      <c r="D105" s="1">
+        <v>65.637080930124</v>
+      </c>
+      <c r="E105" s="1">
+        <v>66.957248842252994</v>
+      </c>
+      <c r="F105" s="21">
+        <v>63.099671319475597</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66.297566631726397</v>
+      </c>
+      <c r="C106" s="1">
+        <v>64.947444644884399</v>
+      </c>
+      <c r="D106" s="1">
+        <v>65.085866245132095</v>
+      </c>
+      <c r="E106" s="1">
+        <v>66.204688165309094</v>
+      </c>
+      <c r="F106" s="21">
+        <v>61.274902688269997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" s="1">
+        <v>65.432045221955093</v>
+      </c>
+      <c r="C107" s="1">
+        <v>64.007825699384199</v>
+      </c>
+      <c r="D107" s="1">
+        <v>64.585548419903802</v>
+      </c>
+      <c r="E107" s="1">
+        <v>65.529374518841195</v>
+      </c>
+      <c r="F107" s="21">
+        <v>63.332207786250301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>250</v>
+      </c>
+      <c r="B108" s="1">
+        <v>64.606850427638705</v>
+      </c>
+      <c r="C108" s="1">
+        <v>63.123427548755203</v>
+      </c>
+      <c r="D108" s="1">
+        <v>64.119276219679094</v>
+      </c>
+      <c r="E108" s="1">
+        <v>64.910059180882698</v>
+      </c>
+      <c r="F108" s="21">
+        <v>64.076024857994099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>251</v>
+      </c>
+      <c r="B109" s="1">
+        <v>63.810046109687597</v>
+      </c>
+      <c r="C109" s="1">
+        <v>62.278575752787098</v>
+      </c>
+      <c r="D109" s="1">
+        <v>63.674504924294901</v>
+      </c>
+      <c r="E109" s="1">
+        <v>64.330712905700196</v>
+      </c>
+      <c r="F109" s="21">
+        <v>62.454939262893298</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>252</v>
+      </c>
+      <c r="B110" s="1">
+        <v>63.038877322904298</v>
+      </c>
+      <c r="C110" s="1">
+        <v>61.4617380971671</v>
+      </c>
+      <c r="D110" s="1">
+        <v>63.248098873621203</v>
+      </c>
+      <c r="E110" s="1">
+        <v>63.782123324978301</v>
+      </c>
+      <c r="F110" s="21">
+        <v>63.160151671661197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>253</v>
+      </c>
+      <c r="B111" s="1">
+        <v>62.29031409401</v>
+      </c>
+      <c r="C111" s="1">
+        <v>60.667442051450799</v>
+      </c>
+      <c r="D111" s="1">
+        <v>62.837553877928997</v>
+      </c>
+      <c r="E111" s="1">
+        <v>63.257340408855903</v>
+      </c>
+      <c r="F111" s="21">
+        <v>64.184036654267302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" s="1">
+        <v>61.556358965205</v>
+      </c>
+      <c r="C112" s="1">
+        <v>59.887550928649503</v>
+      </c>
+      <c r="D112" s="1">
+        <v>62.435556168755298</v>
+      </c>
+      <c r="E112" s="1">
+        <v>62.745382149073897</v>
+      </c>
+      <c r="F112" s="21">
+        <v>64.201997176500001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>255</v>
+      </c>
+      <c r="F113" s="21">
+        <v>64.6207516459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>